--- a/Auswertung_Hauptstudie/data_masterstudie_filtered_1.xlsx
+++ b/Auswertung_Hauptstudie/data_masterstudie_filtered_1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Psychologie\Masterarbeit\Masterarbeit\Auswertung_Hauptstudie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F86E375-00F3-483D-B792-007C5D94571A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBD5279-5D2A-4750-B991-8C2B49FF9FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="8" r:id="rId1"/>
+    <sheet name="Risiko" sheetId="8" r:id="rId1"/>
     <sheet name="Daten" sheetId="1" r:id="rId2"/>
     <sheet name="Geschlecht" sheetId="3" r:id="rId3"/>
     <sheet name="Alter" sheetId="4" r:id="rId4"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="120">
   <si>
     <t>FS01_CP</t>
   </si>
@@ -396,6 +396,12 @@
   <si>
     <t>Niedrige Risikotoleranz</t>
   </si>
+  <si>
+    <t>TOTAL_RISIKO</t>
+  </si>
+  <si>
+    <t>TOTAL_SAFE</t>
+  </si>
 </sst>
 </file>
 
@@ -530,7 +536,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[data_masterstudie_filtered_1.xlsx]Tabelle1!PivotTable5</c:name>
+    <c:name>[data_masterstudie_filtered_1.xlsx]Risiko!PivotTable5</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -660,7 +666,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$1</c:f>
+              <c:f>Risiko!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -739,7 +745,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$2:$A$6</c:f>
+              <c:f>Risiko!$A$2:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -762,7 +768,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$6</c:f>
+              <c:f>Risiko!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1534,7 +1540,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[data_masterstudie_filtered_1.xlsx]Tabelle1!PivotTable5</c:name>
+    <c:name>[data_masterstudie_filtered_1.xlsx]Risiko!PivotTable5</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -1629,6 +1635,76 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1639,7 +1715,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$1</c:f>
+              <c:f>Risiko!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1662,6 +1738,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-58FB-4F7C-9835-B485AB22F870}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1677,6 +1758,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-58FB-4F7C-9835-B485AB22F870}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1692,6 +1778,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-58FB-4F7C-9835-B485AB22F870}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1707,6 +1798,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-58FB-4F7C-9835-B485AB22F870}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1722,6 +1818,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-58FB-4F7C-9835-B485AB22F870}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1781,7 +1882,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$2:$A$6</c:f>
+              <c:f>Risiko!$A$2:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1804,7 +1905,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$6</c:f>
+              <c:f>Risiko!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1957,7 +2058,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[data_masterstudie_filtered_1.xlsx]Tabelle1!PivotTable5</c:name>
+    <c:name>[data_masterstudie_filtered_1.xlsx]Risiko!PivotTable5</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -2061,7 +2162,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$1</c:f>
+              <c:f>Risiko!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2082,7 +2183,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$2:$A$6</c:f>
+              <c:f>Risiko!$A$2:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2105,7 +2206,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$6</c:f>
+              <c:f>Risiko!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2442,7 +2543,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$8:$A$12</c:f>
+              <c:f>Risiko!$A$8:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2465,7 +2566,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$8:$B$12</c:f>
+              <c:f>Risiko!$B$8:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -19485,7 +19586,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{552FCC30-6E0F-42EA-BDBD-C519BAE884E3}" name="PivotTable5" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{552FCC30-6E0F-42EA-BDBD-C519BAE884E3}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
   <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="53">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -19893,7 +19994,7 @@
   <dataFields count="1">
     <dataField name="Anzahl von RISK_RESULT" fld="44" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="3">
+  <chartFormats count="8">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -19917,6 +20018,66 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -20221,7 +20382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8506F716-B859-4022-B2FA-13D4F3362B0F}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -20328,10 +20489,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB162"/>
+  <dimension ref="A1:BD162"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AT1" sqref="AT1:AT1048576"/>
+    <sheetView tabSelected="1" topLeftCell="Q64" workbookViewId="0">
+      <selection sqref="A1:BD162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20339,7 +20500,7 @@
     <col min="9" max="9" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20499,8 +20660,14 @@
       <c r="BB1" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -20640,10 +20807,10 @@
         <v>18400</v>
       </c>
       <c r="AY2">
-        <v>57400</v>
+        <v>36400</v>
       </c>
       <c r="AZ2">
-        <v>12600</v>
+        <v>33600</v>
       </c>
       <c r="BA2">
         <v>0</v>
@@ -20651,8 +20818,14 @@
       <c r="BB2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC2">
+        <v>46200</v>
+      </c>
+      <c r="BD2">
+        <v>53800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -20800,8 +20973,14 @@
       <c r="BB3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC3">
+        <v>20000</v>
+      </c>
+      <c r="BD3">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -20940,8 +21119,14 @@
       <c r="BB4">
         <v>72000</v>
       </c>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC4">
+        <v>28000</v>
+      </c>
+      <c r="BD4">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -21080,8 +21265,14 @@
       <c r="BB5">
         <v>50000</v>
       </c>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC5">
+        <v>50000</v>
+      </c>
+      <c r="BD5">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -21221,19 +21412,25 @@
         <v>20000</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
         <v>50000</v>
       </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BD6">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -21381,8 +21578,14 @@
       <c r="BB7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -21521,8 +21724,14 @@
       <c r="BB8">
         <v>50000</v>
       </c>
-    </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC8">
+        <v>50000</v>
+      </c>
+      <c r="BD8">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -21662,10 +21871,10 @@
         <v>17800</v>
       </c>
       <c r="AY9">
-        <v>19500</v>
+        <v>12000</v>
       </c>
       <c r="AZ9">
-        <v>30500</v>
+        <v>38000</v>
       </c>
       <c r="BA9">
         <v>0</v>
@@ -21673,8 +21882,14 @@
       <c r="BB9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC9">
+        <v>25900</v>
+      </c>
+      <c r="BD9">
+        <v>74100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -21817,10 +22032,10 @@
         <v>17200</v>
       </c>
       <c r="AY10">
-        <v>700</v>
+        <v>2100</v>
       </c>
       <c r="AZ10">
-        <v>69300</v>
+        <v>67900</v>
       </c>
       <c r="BA10">
         <v>0</v>
@@ -21828,8 +22043,14 @@
       <c r="BB10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC10">
+        <v>5000</v>
+      </c>
+      <c r="BD10">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -21968,8 +22189,14 @@
       <c r="BB11">
         <v>50000</v>
       </c>
-    </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC11">
+        <v>50000</v>
+      </c>
+      <c r="BD11">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -22108,8 +22335,14 @@
       <c r="BB12">
         <v>50000</v>
       </c>
-    </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC12">
+        <v>50000</v>
+      </c>
+      <c r="BD12">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -22249,10 +22482,10 @@
         <v>20000</v>
       </c>
       <c r="AY13">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="AZ13">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="BA13">
         <v>0</v>
@@ -22260,8 +22493,14 @@
       <c r="BB13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC13">
+        <v>60000</v>
+      </c>
+      <c r="BD13">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -22401,10 +22640,10 @@
         <v>20000</v>
       </c>
       <c r="AY14">
-        <v>33500</v>
+        <v>9500</v>
       </c>
       <c r="AZ14">
-        <v>16500</v>
+        <v>40500</v>
       </c>
       <c r="BA14">
         <v>0</v>
@@ -22412,8 +22651,14 @@
       <c r="BB14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC14">
+        <v>29600</v>
+      </c>
+      <c r="BD14">
+        <v>70400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -22553,10 +22798,10 @@
         <v>15400</v>
       </c>
       <c r="AY15">
-        <v>18900</v>
+        <v>5600</v>
       </c>
       <c r="AZ15">
-        <v>51100</v>
+        <v>64400</v>
       </c>
       <c r="BA15">
         <v>0</v>
@@ -22564,8 +22809,14 @@
       <c r="BB15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC15">
+        <v>12900</v>
+      </c>
+      <c r="BD15">
+        <v>87100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -22704,8 +22955,14 @@
       <c r="BB16">
         <v>75000</v>
       </c>
-    </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC16">
+        <v>25000</v>
+      </c>
+      <c r="BD16">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -22844,8 +23101,14 @@
       <c r="BB17">
         <v>85000</v>
       </c>
-    </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC17">
+        <v>15000</v>
+      </c>
+      <c r="BD17">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -22985,10 +23248,10 @@
         <v>20000</v>
       </c>
       <c r="AY18">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="AZ18">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="BA18">
         <v>0</v>
@@ -22996,8 +23259,14 @@
       <c r="BB18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC18">
+        <v>25000</v>
+      </c>
+      <c r="BD18">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -23137,10 +23406,10 @@
         <v>13400</v>
       </c>
       <c r="AY19">
-        <v>56000</v>
+        <v>21000</v>
       </c>
       <c r="AZ19">
-        <v>14000</v>
+        <v>49000</v>
       </c>
       <c r="BA19">
         <v>0</v>
@@ -23148,8 +23417,14 @@
       <c r="BB19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC19">
+        <v>35600</v>
+      </c>
+      <c r="BD19">
+        <v>64400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -23289,19 +23564,25 @@
         <v>10400</v>
       </c>
       <c r="AY20">
+        <v>24500</v>
+      </c>
+      <c r="AZ20">
         <v>25500</v>
       </c>
-      <c r="AZ20">
-        <v>24500</v>
-      </c>
       <c r="BA20">
         <v>0</v>
       </c>
       <c r="BB20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC20">
+        <v>49400</v>
+      </c>
+      <c r="BD20">
+        <v>50600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -23440,8 +23721,14 @@
       <c r="BB21">
         <v>30000</v>
       </c>
-    </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC21">
+        <v>70000</v>
+      </c>
+      <c r="BD21">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -23581,10 +23868,10 @@
         <v>20000</v>
       </c>
       <c r="AY22">
-        <v>0</v>
+        <v>30100</v>
       </c>
       <c r="AZ22">
-        <v>70000</v>
+        <v>39900</v>
       </c>
       <c r="BA22">
         <v>0</v>
@@ -23592,8 +23879,14 @@
       <c r="BB22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC22">
+        <v>30100</v>
+      </c>
+      <c r="BD22">
+        <v>69900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -23732,8 +24025,14 @@
       <c r="BB23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC23">
+        <v>100000</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -23873,19 +24172,25 @@
         <v>20000</v>
       </c>
       <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
         <v>70000</v>
       </c>
-      <c r="AZ24">
-        <v>0</v>
-      </c>
       <c r="BA24">
         <v>0</v>
       </c>
       <c r="BB24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC24">
+        <v>10000</v>
+      </c>
+      <c r="BD24">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -24025,10 +24330,10 @@
         <v>18800</v>
       </c>
       <c r="AY25">
-        <v>42000</v>
+        <v>5000</v>
       </c>
       <c r="AZ25">
-        <v>8000</v>
+        <v>45000</v>
       </c>
       <c r="BA25">
         <v>0</v>
@@ -24036,8 +24341,14 @@
       <c r="BB25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC25">
+        <v>31400</v>
+      </c>
+      <c r="BD25">
+        <v>68600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -24173,8 +24484,14 @@
       <c r="BB26">
         <v>100000</v>
       </c>
-    </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -24314,10 +24631,10 @@
         <v>3600</v>
       </c>
       <c r="AY27">
-        <v>50000</v>
+        <v>15500</v>
       </c>
       <c r="AZ27">
-        <v>0</v>
+        <v>34500</v>
       </c>
       <c r="BA27">
         <v>0</v>
@@ -24325,8 +24642,14 @@
       <c r="BB27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC27">
+        <v>61900</v>
+      </c>
+      <c r="BD27">
+        <v>38100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -24466,10 +24789,10 @@
         <v>5600</v>
       </c>
       <c r="AY28">
-        <v>55300</v>
+        <v>50400</v>
       </c>
       <c r="AZ28">
-        <v>14700</v>
+        <v>19600</v>
       </c>
       <c r="BA28">
         <v>0</v>
@@ -24477,8 +24800,14 @@
       <c r="BB28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC28">
+        <v>72700</v>
+      </c>
+      <c r="BD28">
+        <v>27300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -24611,8 +24940,14 @@
       <c r="BB29">
         <v>75000</v>
       </c>
-    </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC29">
+        <v>25000</v>
+      </c>
+      <c r="BD29">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -24766,8 +25101,14 @@
       <c r="BB30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC30">
+        <v>0</v>
+      </c>
+      <c r="BD30">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -24906,8 +25247,14 @@
       <c r="BB31">
         <v>90000</v>
       </c>
-    </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC31">
+        <v>10000</v>
+      </c>
+      <c r="BD31">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -25047,10 +25394,10 @@
         <v>10000</v>
       </c>
       <c r="AY32">
-        <v>70000</v>
+        <v>35000</v>
       </c>
       <c r="AZ32">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="BA32">
         <v>0</v>
@@ -25058,8 +25405,14 @@
       <c r="BB32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC32">
+        <v>55000</v>
+      </c>
+      <c r="BD32">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -25199,19 +25552,25 @@
         <v>20000</v>
       </c>
       <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
         <v>70000</v>
       </c>
-      <c r="AZ33">
-        <v>0</v>
-      </c>
       <c r="BA33">
         <v>0</v>
       </c>
       <c r="BB33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC33">
+        <v>10000</v>
+      </c>
+      <c r="BD33">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -25350,8 +25709,14 @@
       <c r="BB34">
         <v>90000</v>
       </c>
-    </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC34">
+        <v>10000</v>
+      </c>
+      <c r="BD34">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -25494,10 +25859,10 @@
         <v>14200</v>
       </c>
       <c r="AY35">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="AZ35">
-        <v>41000</v>
+        <v>40000</v>
       </c>
       <c r="BA35">
         <v>0</v>
@@ -25505,8 +25870,14 @@
       <c r="BB35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC35">
+        <v>21200</v>
+      </c>
+      <c r="BD35">
+        <v>78800</v>
+      </c>
+    </row>
+    <row r="36" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -25646,10 +26017,10 @@
         <v>20000</v>
       </c>
       <c r="AY36">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AZ36">
-        <v>49500</v>
+        <v>50000</v>
       </c>
       <c r="BA36">
         <v>0</v>
@@ -25657,8 +26028,14 @@
       <c r="BB36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC36">
+        <v>300</v>
+      </c>
+      <c r="BD36">
+        <v>99700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -25798,10 +26175,10 @@
         <v>18800</v>
       </c>
       <c r="AY37">
-        <v>49000</v>
+        <v>10500</v>
       </c>
       <c r="AZ37">
-        <v>21000</v>
+        <v>59500</v>
       </c>
       <c r="BA37">
         <v>0</v>
@@ -25809,8 +26186,14 @@
       <c r="BB37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC37">
+        <v>18700</v>
+      </c>
+      <c r="BD37">
+        <v>81300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -25950,10 +26333,10 @@
         <v>14800</v>
       </c>
       <c r="AY38">
-        <v>56000</v>
+        <v>25900</v>
       </c>
       <c r="AZ38">
-        <v>14000</v>
+        <v>44100</v>
       </c>
       <c r="BA38">
         <v>0</v>
@@ -25961,8 +26344,14 @@
       <c r="BB38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC38">
+        <v>39100</v>
+      </c>
+      <c r="BD38">
+        <v>60900</v>
+      </c>
+    </row>
+    <row r="39" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -26102,19 +26491,25 @@
         <v>20000</v>
       </c>
       <c r="AY39">
+        <v>0</v>
+      </c>
+      <c r="AZ39">
         <v>50000</v>
       </c>
-      <c r="AZ39">
-        <v>0</v>
-      </c>
       <c r="BA39">
         <v>0</v>
       </c>
       <c r="BB39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC39">
+        <v>30000</v>
+      </c>
+      <c r="BD39">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -26265,8 +26660,14 @@
       <c r="BB40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC40">
+        <v>0</v>
+      </c>
+      <c r="BD40">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -26417,8 +26818,14 @@
       <c r="BB41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC41">
+        <v>57200</v>
+      </c>
+      <c r="BD41">
+        <v>42800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -26554,8 +26961,14 @@
       <c r="BB42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC42">
+        <v>100000</v>
+      </c>
+      <c r="BD42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -26694,8 +27107,14 @@
       <c r="BB43">
         <v>70000</v>
       </c>
-    </row>
-    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC43">
+        <v>30000</v>
+      </c>
+      <c r="BD43">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -26835,10 +27254,10 @@
         <v>20000</v>
       </c>
       <c r="AY44">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="AZ44">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="BA44">
         <v>0</v>
@@ -26846,8 +27265,14 @@
       <c r="BB44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC44">
+        <v>49000</v>
+      </c>
+      <c r="BD44">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -26987,10 +27412,10 @@
         <v>15000</v>
       </c>
       <c r="AY45">
-        <v>13300</v>
+        <v>20300</v>
       </c>
       <c r="AZ45">
-        <v>56700</v>
+        <v>49700</v>
       </c>
       <c r="BA45">
         <v>0</v>
@@ -26998,8 +27423,14 @@
       <c r="BB45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC45">
+        <v>27200</v>
+      </c>
+      <c r="BD45">
+        <v>72800</v>
+      </c>
+    </row>
+    <row r="46" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -27135,8 +27566,14 @@
       <c r="BB46">
         <v>95000</v>
       </c>
-    </row>
-    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC46">
+        <v>5000</v>
+      </c>
+      <c r="BD46">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -27275,8 +27712,14 @@
       <c r="BB47">
         <v>10000</v>
       </c>
-    </row>
-    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC47">
+        <v>90000</v>
+      </c>
+      <c r="BD47">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -27427,8 +27870,14 @@
       <c r="BB48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC48">
+        <v>1000</v>
+      </c>
+      <c r="BD48">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -27565,10 +28014,10 @@
         <v>20000</v>
       </c>
       <c r="AY49">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="AZ49">
-        <v>35000</v>
+        <v>70000</v>
       </c>
       <c r="BA49">
         <v>0</v>
@@ -27576,8 +28025,14 @@
       <c r="BB49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC49">
+        <v>5000</v>
+      </c>
+      <c r="BD49">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -27713,8 +28168,14 @@
       <c r="BB50">
         <v>90000</v>
       </c>
-    </row>
-    <row r="51" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC50">
+        <v>10000</v>
+      </c>
+      <c r="BD50">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -27854,10 +28315,10 @@
         <v>10000</v>
       </c>
       <c r="AY51">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="AZ51">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="BA51">
         <v>0</v>
@@ -27865,8 +28326,14 @@
       <c r="BB51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC51">
+        <v>45000</v>
+      </c>
+      <c r="BD51">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -28006,10 +28473,10 @@
         <v>14400</v>
       </c>
       <c r="AY52">
-        <v>31500</v>
+        <v>22400</v>
       </c>
       <c r="AZ52">
-        <v>38500</v>
+        <v>47600</v>
       </c>
       <c r="BA52">
         <v>0</v>
@@ -28017,8 +28484,14 @@
       <c r="BB52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC52">
+        <v>32500</v>
+      </c>
+      <c r="BD52">
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -28158,10 +28631,10 @@
         <v>6600</v>
       </c>
       <c r="AY53">
-        <v>25000</v>
+        <v>5500</v>
       </c>
       <c r="AZ53">
-        <v>25000</v>
+        <v>44500</v>
       </c>
       <c r="BA53">
         <v>0</v>
@@ -28169,8 +28642,14 @@
       <c r="BB53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC53">
+        <v>33900</v>
+      </c>
+      <c r="BD53">
+        <v>66100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -28309,8 +28788,14 @@
       <c r="BB54">
         <v>50000</v>
       </c>
-    </row>
-    <row r="55" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC54">
+        <v>50000</v>
+      </c>
+      <c r="BD54">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -28450,10 +28935,10 @@
         <v>19000</v>
       </c>
       <c r="AY55">
-        <v>7000</v>
+        <v>4200</v>
       </c>
       <c r="AZ55">
-        <v>63000</v>
+        <v>65800</v>
       </c>
       <c r="BA55">
         <v>0</v>
@@ -28461,8 +28946,14 @@
       <c r="BB55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC55">
+        <v>6200</v>
+      </c>
+      <c r="BD55">
+        <v>93800</v>
+      </c>
+    </row>
+    <row r="56" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -28601,8 +29092,14 @@
       <c r="BB56">
         <v>57000</v>
       </c>
-    </row>
-    <row r="57" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC56">
+        <v>43000</v>
+      </c>
+      <c r="BD56">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -28742,10 +29239,10 @@
         <v>18000</v>
       </c>
       <c r="AY57">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="AZ57">
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="BA57">
         <v>0</v>
@@ -28753,8 +29250,14 @@
       <c r="BB57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC57">
+        <v>37000</v>
+      </c>
+      <c r="BD57">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -28894,10 +29397,10 @@
         <v>20000</v>
       </c>
       <c r="AY58">
-        <v>39200</v>
+        <v>0</v>
       </c>
       <c r="AZ58">
-        <v>30800</v>
+        <v>70000</v>
       </c>
       <c r="BA58">
         <v>0</v>
@@ -28905,8 +29408,14 @@
       <c r="BB58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC58">
+        <v>5600</v>
+      </c>
+      <c r="BD58">
+        <v>94400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -29046,19 +29555,25 @@
         <v>10000</v>
       </c>
       <c r="AY59">
+        <v>0</v>
+      </c>
+      <c r="AZ59">
         <v>50000</v>
       </c>
-      <c r="AZ59">
-        <v>0</v>
-      </c>
       <c r="BA59">
         <v>0</v>
       </c>
       <c r="BB59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC59">
+        <v>40000</v>
+      </c>
+      <c r="BD59">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -29197,8 +29712,14 @@
       <c r="BB60">
         <v>63000</v>
       </c>
-    </row>
-    <row r="61" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC60">
+        <v>37000</v>
+      </c>
+      <c r="BD60">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -29349,8 +29870,14 @@
       <c r="BB61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC61">
+        <v>5000</v>
+      </c>
+      <c r="BD61">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -29490,10 +30017,10 @@
         <v>20000</v>
       </c>
       <c r="AY62">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="AZ62">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="BA62">
         <v>0</v>
@@ -29501,8 +30028,14 @@
       <c r="BB62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC62">
+        <v>9800</v>
+      </c>
+      <c r="BD62">
+        <v>90200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -29642,10 +30175,10 @@
         <v>20000</v>
       </c>
       <c r="AY63">
-        <v>70000</v>
+        <v>42000</v>
       </c>
       <c r="AZ63">
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="BA63">
         <v>0</v>
@@ -29653,8 +30186,14 @@
       <c r="BB63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC63">
+        <v>52000</v>
+      </c>
+      <c r="BD63">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -29805,8 +30344,14 @@
       <c r="BB64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC64">
+        <v>0</v>
+      </c>
+      <c r="BD64">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -29945,8 +30490,14 @@
       <c r="BB65">
         <v>73000</v>
       </c>
-    </row>
-    <row r="66" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC65">
+        <v>27000</v>
+      </c>
+      <c r="BD65">
+        <v>73000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -30086,10 +30637,10 @@
         <v>0</v>
       </c>
       <c r="AY66">
-        <v>70000</v>
+        <v>39200</v>
       </c>
       <c r="AZ66">
-        <v>0</v>
+        <v>30800</v>
       </c>
       <c r="BA66">
         <v>0</v>
@@ -30097,8 +30648,14 @@
       <c r="BB66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC66">
+        <v>69200</v>
+      </c>
+      <c r="BD66">
+        <v>30800</v>
+      </c>
+    </row>
+    <row r="67" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -30237,8 +30794,14 @@
       <c r="BB67">
         <v>100000</v>
       </c>
-    </row>
-    <row r="68" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC67">
+        <v>0</v>
+      </c>
+      <c r="BD67">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -30378,10 +30941,10 @@
         <v>7400</v>
       </c>
       <c r="AY68">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="AZ68">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="BA68">
         <v>0</v>
@@ -30389,8 +30952,14 @@
       <c r="BB68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC68">
+        <v>82600</v>
+      </c>
+      <c r="BD68">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="69" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -30530,10 +31099,10 @@
         <v>20000</v>
       </c>
       <c r="AY69">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="AZ69">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="BA69">
         <v>0</v>
@@ -30541,8 +31110,14 @@
       <c r="BB69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC69">
+        <v>40000</v>
+      </c>
+      <c r="BD69">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -30681,8 +31256,14 @@
       <c r="BB70">
         <v>75000</v>
       </c>
-    </row>
-    <row r="71" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC70">
+        <v>25000</v>
+      </c>
+      <c r="BD70">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -30822,10 +31403,10 @@
         <v>18000</v>
       </c>
       <c r="AY71">
-        <v>56000</v>
+        <v>0</v>
       </c>
       <c r="AZ71">
-        <v>14000</v>
+        <v>70000</v>
       </c>
       <c r="BA71">
         <v>0</v>
@@ -30833,8 +31414,14 @@
       <c r="BB71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC71">
+        <v>10000</v>
+      </c>
+      <c r="BD71">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -30985,8 +31572,14 @@
       <c r="BB72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC72">
+        <v>0</v>
+      </c>
+      <c r="BD72">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -31125,8 +31718,14 @@
       <c r="BB73">
         <v>69000</v>
       </c>
-    </row>
-    <row r="74" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC73">
+        <v>31000</v>
+      </c>
+      <c r="BD73">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -31266,19 +31865,25 @@
         <v>20000</v>
       </c>
       <c r="AY74">
+        <v>2000</v>
+      </c>
+      <c r="AZ74">
+        <v>48000</v>
+      </c>
+      <c r="BA74">
+        <v>0</v>
+      </c>
+      <c r="BB74">
+        <v>0</v>
+      </c>
+      <c r="BC74">
         <v>5000</v>
       </c>
-      <c r="AZ74">
-        <v>45000</v>
-      </c>
-      <c r="BA74">
-        <v>0</v>
-      </c>
-      <c r="BB74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BD74">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -31418,10 +32023,10 @@
         <v>0</v>
       </c>
       <c r="AY75">
-        <v>70000</v>
+        <v>10500</v>
       </c>
       <c r="AZ75">
-        <v>0</v>
+        <v>59500</v>
       </c>
       <c r="BA75">
         <v>0</v>
@@ -31429,8 +32034,14 @@
       <c r="BB75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC75">
+        <v>40500</v>
+      </c>
+      <c r="BD75">
+        <v>59500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -31570,19 +32181,25 @@
         <v>20000</v>
       </c>
       <c r="AY76">
+        <v>0</v>
+      </c>
+      <c r="AZ76">
         <v>50000</v>
       </c>
-      <c r="AZ76">
-        <v>0</v>
-      </c>
       <c r="BA76">
         <v>0</v>
       </c>
       <c r="BB76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC76">
+        <v>30000</v>
+      </c>
+      <c r="BD76">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -31721,8 +32338,14 @@
       <c r="BB77">
         <v>35000</v>
       </c>
-    </row>
-    <row r="78" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC77">
+        <v>65000</v>
+      </c>
+      <c r="BD77">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -31861,8 +32484,14 @@
       <c r="BB78">
         <v>100000</v>
       </c>
-    </row>
-    <row r="79" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC78">
+        <v>0</v>
+      </c>
+      <c r="BD78">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -32013,8 +32642,14 @@
       <c r="BB79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC79">
+        <v>0</v>
+      </c>
+      <c r="BD79">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -32154,10 +32789,10 @@
         <v>9600</v>
       </c>
       <c r="AY80">
-        <v>46200</v>
+        <v>20300</v>
       </c>
       <c r="AZ80">
-        <v>23800</v>
+        <v>49700</v>
       </c>
       <c r="BA80">
         <v>0</v>
@@ -32165,8 +32800,14 @@
       <c r="BB80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC80">
+        <v>37300</v>
+      </c>
+      <c r="BD80">
+        <v>62700</v>
+      </c>
+    </row>
+    <row r="81" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -32317,8 +32958,14 @@
       <c r="BB81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC81">
+        <v>0</v>
+      </c>
+      <c r="BD81">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -32458,10 +33105,10 @@
         <v>14800</v>
       </c>
       <c r="AY82">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="AZ82">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="BA82">
         <v>0</v>
@@ -32469,8 +33116,14 @@
       <c r="BB82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC82">
+        <v>15200</v>
+      </c>
+      <c r="BD82">
+        <v>84800</v>
+      </c>
+    </row>
+    <row r="83" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -32609,8 +33262,14 @@
       <c r="BB83">
         <v>90000</v>
       </c>
-    </row>
-    <row r="84" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC83">
+        <v>10000</v>
+      </c>
+      <c r="BD83">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -32747,10 +33406,10 @@
         <v>18400</v>
       </c>
       <c r="AY84">
-        <v>7700</v>
+        <v>4900</v>
       </c>
       <c r="AZ84">
-        <v>62300</v>
+        <v>65100</v>
       </c>
       <c r="BA84">
         <v>0</v>
@@ -32758,8 +33417,14 @@
       <c r="BB84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC84">
+        <v>7600</v>
+      </c>
+      <c r="BD84">
+        <v>92400</v>
+      </c>
+    </row>
+    <row r="85" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -32899,10 +33564,10 @@
         <v>20000</v>
       </c>
       <c r="AY85">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="AZ85">
-        <v>35000</v>
+        <v>70000</v>
       </c>
       <c r="BA85">
         <v>0</v>
@@ -32910,8 +33575,14 @@
       <c r="BB85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC85">
+        <v>5000</v>
+      </c>
+      <c r="BD85">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -33042,10 +33713,10 @@
         <v>9400</v>
       </c>
       <c r="AY86">
-        <v>31500</v>
+        <v>4000</v>
       </c>
       <c r="AZ86">
-        <v>18500</v>
+        <v>46000</v>
       </c>
       <c r="BA86">
         <v>0</v>
@@ -33053,8 +33724,14 @@
       <c r="BB86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC86">
+        <v>33500</v>
+      </c>
+      <c r="BD86">
+        <v>66500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -33193,8 +33870,14 @@
       <c r="BB87">
         <v>80000</v>
       </c>
-    </row>
-    <row r="88" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC87">
+        <v>20000</v>
+      </c>
+      <c r="BD87">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -33333,8 +34016,14 @@
       <c r="BB88">
         <v>90000</v>
       </c>
-    </row>
-    <row r="89" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC88">
+        <v>10000</v>
+      </c>
+      <c r="BD88">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -33474,10 +34163,10 @@
         <v>16200</v>
       </c>
       <c r="AY89">
-        <v>35000</v>
+        <v>28500</v>
       </c>
       <c r="AZ89">
-        <v>15000</v>
+        <v>21500</v>
       </c>
       <c r="BA89">
         <v>0</v>
@@ -33485,8 +34174,14 @@
       <c r="BB89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC89">
+        <v>53300</v>
+      </c>
+      <c r="BD89">
+        <v>46700</v>
+      </c>
+    </row>
+    <row r="90" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -33623,10 +34318,10 @@
         <v>19000</v>
       </c>
       <c r="AY90">
-        <v>21000</v>
+        <v>4900</v>
       </c>
       <c r="AZ90">
-        <v>49000</v>
+        <v>65100</v>
       </c>
       <c r="BA90">
         <v>0</v>
@@ -33634,8 +34329,14 @@
       <c r="BB90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC90">
+        <v>8900</v>
+      </c>
+      <c r="BD90">
+        <v>91100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -33774,8 +34475,14 @@
       <c r="BB91">
         <v>80000</v>
       </c>
-    </row>
-    <row r="92" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC91">
+        <v>20000</v>
+      </c>
+      <c r="BD91">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -33926,8 +34633,14 @@
       <c r="BB92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC92">
+        <v>20000</v>
+      </c>
+      <c r="BD92">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -34067,10 +34780,10 @@
         <v>5200</v>
       </c>
       <c r="AY93">
-        <v>44500</v>
+        <v>10500</v>
       </c>
       <c r="AZ93">
-        <v>5500</v>
+        <v>39500</v>
       </c>
       <c r="BA93">
         <v>0</v>
@@ -34078,8 +34791,14 @@
       <c r="BB93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC93">
+        <v>52000</v>
+      </c>
+      <c r="BD93">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -34221,8 +34940,14 @@
       <c r="BB94">
         <v>67000</v>
       </c>
-    </row>
-    <row r="95" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC94">
+        <v>33000</v>
+      </c>
+      <c r="BD94">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -34362,10 +35087,10 @@
         <v>15000</v>
       </c>
       <c r="AY95">
-        <v>35700</v>
+        <v>21000</v>
       </c>
       <c r="AZ95">
-        <v>34300</v>
+        <v>49000</v>
       </c>
       <c r="BA95">
         <v>0</v>
@@ -34373,8 +35098,14 @@
       <c r="BB95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC95">
+        <v>31100</v>
+      </c>
+      <c r="BD95">
+        <v>68900</v>
+      </c>
+    </row>
+    <row r="96" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -34514,10 +35245,10 @@
         <v>20000</v>
       </c>
       <c r="AY96">
-        <v>17000</v>
+        <v>10500</v>
       </c>
       <c r="AZ96">
-        <v>33000</v>
+        <v>39500</v>
       </c>
       <c r="BA96">
         <v>0</v>
@@ -34525,8 +35256,14 @@
       <c r="BB96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC96">
+        <v>20700</v>
+      </c>
+      <c r="BD96">
+        <v>79300</v>
+      </c>
+    </row>
+    <row r="97" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -34665,8 +35402,14 @@
       <c r="BB97">
         <v>72000</v>
       </c>
-    </row>
-    <row r="98" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC97">
+        <v>28000</v>
+      </c>
+      <c r="BD97">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -34806,10 +35549,10 @@
         <v>10000</v>
       </c>
       <c r="AY98">
-        <v>33500</v>
+        <v>50000</v>
       </c>
       <c r="AZ98">
-        <v>16500</v>
+        <v>0</v>
       </c>
       <c r="BA98">
         <v>0</v>
@@ -34817,8 +35560,14 @@
       <c r="BB98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC98">
+        <v>80100</v>
+      </c>
+      <c r="BD98">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="99" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -34958,10 +35707,10 @@
         <v>11600</v>
       </c>
       <c r="AY99">
-        <v>36400</v>
+        <v>70000</v>
       </c>
       <c r="AZ99">
-        <v>33600</v>
+        <v>0</v>
       </c>
       <c r="BA99">
         <v>0</v>
@@ -34969,8 +35718,14 @@
       <c r="BB99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC99">
+        <v>83600</v>
+      </c>
+      <c r="BD99">
+        <v>16400</v>
+      </c>
+    </row>
+    <row r="100" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -35110,10 +35865,10 @@
         <v>20000</v>
       </c>
       <c r="AY100">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="AZ100">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="BA100">
         <v>0</v>
@@ -35121,8 +35876,14 @@
       <c r="BB100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC100">
+        <v>15000</v>
+      </c>
+      <c r="BD100">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -35267,8 +36028,14 @@
       <c r="BB101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC101">
+        <v>0</v>
+      </c>
+      <c r="BD101">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -35407,8 +36174,14 @@
       <c r="BB102">
         <v>66000</v>
       </c>
-    </row>
-    <row r="103" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC102">
+        <v>34000</v>
+      </c>
+      <c r="BD102">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -35547,8 +36320,14 @@
       <c r="BB103">
         <v>70000</v>
       </c>
-    </row>
-    <row r="104" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC103">
+        <v>30000</v>
+      </c>
+      <c r="BD103">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -35688,10 +36467,10 @@
         <v>8400</v>
       </c>
       <c r="AY104">
-        <v>37500</v>
+        <v>0</v>
       </c>
       <c r="AZ104">
-        <v>12500</v>
+        <v>50000</v>
       </c>
       <c r="BA104">
         <v>0</v>
@@ -35699,8 +36478,14 @@
       <c r="BB104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC104">
+        <v>34100</v>
+      </c>
+      <c r="BD104">
+        <v>65900</v>
+      </c>
+    </row>
+    <row r="105" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -35851,8 +36636,14 @@
       <c r="BB105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC105">
+        <v>100000</v>
+      </c>
+      <c r="BD105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -35992,10 +36783,10 @@
         <v>20000</v>
       </c>
       <c r="AY106">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="AZ106">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="BA106">
         <v>0</v>
@@ -36003,8 +36794,14 @@
       <c r="BB106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC106">
+        <v>40000</v>
+      </c>
+      <c r="BD106">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -36143,8 +36940,14 @@
       <c r="BB107">
         <v>100000</v>
       </c>
-    </row>
-    <row r="108" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC107">
+        <v>0</v>
+      </c>
+      <c r="BD107">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -36284,10 +37087,10 @@
         <v>20000</v>
       </c>
       <c r="AY108">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="AZ108">
-        <v>59500</v>
+        <v>70000</v>
       </c>
       <c r="BA108">
         <v>0</v>
@@ -36295,8 +37098,14 @@
       <c r="BB108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC108">
+        <v>1500</v>
+      </c>
+      <c r="BD108">
+        <v>98500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -36436,10 +37245,10 @@
         <v>16000</v>
       </c>
       <c r="AY109">
-        <v>70000</v>
+        <v>34300</v>
       </c>
       <c r="AZ109">
-        <v>0</v>
+        <v>35700</v>
       </c>
       <c r="BA109">
         <v>0</v>
@@ -36447,8 +37256,14 @@
       <c r="BB109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC109">
+        <v>48300</v>
+      </c>
+      <c r="BD109">
+        <v>51700</v>
+      </c>
+    </row>
+    <row r="110" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -36588,19 +37403,25 @@
         <v>10000</v>
       </c>
       <c r="AY110">
+        <v>10000</v>
+      </c>
+      <c r="AZ110">
+        <v>40000</v>
+      </c>
+      <c r="BA110">
+        <v>0</v>
+      </c>
+      <c r="BB110">
+        <v>0</v>
+      </c>
+      <c r="BC110">
         <v>50000</v>
       </c>
-      <c r="AZ110">
-        <v>0</v>
-      </c>
-      <c r="BA110">
-        <v>0</v>
-      </c>
-      <c r="BB110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BD110">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -36739,8 +37560,14 @@
       <c r="BB111">
         <v>100000</v>
       </c>
-    </row>
-    <row r="112" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC111">
+        <v>0</v>
+      </c>
+      <c r="BD111">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -36879,8 +37706,14 @@
       <c r="BB112">
         <v>80000</v>
       </c>
-    </row>
-    <row r="113" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC112">
+        <v>20000</v>
+      </c>
+      <c r="BD112">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -37020,10 +37853,10 @@
         <v>20000</v>
       </c>
       <c r="AY113">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AZ113">
-        <v>50000</v>
+        <v>49500</v>
       </c>
       <c r="BA113">
         <v>0</v>
@@ -37031,8 +37864,14 @@
       <c r="BB113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC113">
+        <v>500</v>
+      </c>
+      <c r="BD113">
+        <v>99500</v>
+      </c>
+    </row>
+    <row r="114" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -37166,10 +38005,10 @@
         <v>15000</v>
       </c>
       <c r="AY114">
-        <v>70000</v>
+        <v>14000</v>
       </c>
       <c r="AZ114">
-        <v>0</v>
+        <v>56000</v>
       </c>
       <c r="BA114">
         <v>0</v>
@@ -37177,8 +38016,14 @@
       <c r="BB114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC114">
+        <v>29000</v>
+      </c>
+      <c r="BD114">
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -37329,8 +38174,14 @@
       <c r="BB115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC115">
+        <v>20600</v>
+      </c>
+      <c r="BD115">
+        <v>79400</v>
+      </c>
+    </row>
+    <row r="116" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -37469,8 +38320,14 @@
       <c r="BB116">
         <v>80000</v>
       </c>
-    </row>
-    <row r="117" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC116">
+        <v>20000</v>
+      </c>
+      <c r="BD116">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -37610,10 +38467,10 @@
         <v>20000</v>
       </c>
       <c r="AY117">
-        <v>70000</v>
+        <v>20300</v>
       </c>
       <c r="AZ117">
-        <v>0</v>
+        <v>49700</v>
       </c>
       <c r="BA117">
         <v>0</v>
@@ -37621,8 +38478,14 @@
       <c r="BB117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC117">
+        <v>30300</v>
+      </c>
+      <c r="BD117">
+        <v>69700</v>
+      </c>
+    </row>
+    <row r="118" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -37761,8 +38624,14 @@
       <c r="BB118">
         <v>80000</v>
       </c>
-    </row>
-    <row r="119" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC118">
+        <v>20000</v>
+      </c>
+      <c r="BD118">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -37902,19 +38771,25 @@
         <v>15000</v>
       </c>
       <c r="AY119">
+        <v>0</v>
+      </c>
+      <c r="AZ119">
         <v>50000</v>
       </c>
-      <c r="AZ119">
-        <v>0</v>
-      </c>
       <c r="BA119">
         <v>0</v>
       </c>
       <c r="BB119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC119">
+        <v>35000</v>
+      </c>
+      <c r="BD119">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -38053,8 +38928,14 @@
       <c r="BB120">
         <v>80000</v>
       </c>
-    </row>
-    <row r="121" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC120">
+        <v>20000</v>
+      </c>
+      <c r="BD120">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -38194,10 +39075,10 @@
         <v>19000</v>
       </c>
       <c r="AY121">
-        <v>8500</v>
+        <v>2500</v>
       </c>
       <c r="AZ121">
-        <v>41500</v>
+        <v>47500</v>
       </c>
       <c r="BA121">
         <v>0</v>
@@ -38205,8 +39086,14 @@
       <c r="BB121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC121">
+        <v>8600</v>
+      </c>
+      <c r="BD121">
+        <v>91400</v>
+      </c>
+    </row>
+    <row r="122" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -38346,10 +39233,10 @@
         <v>20000</v>
       </c>
       <c r="AY122">
-        <v>67200</v>
+        <v>10500</v>
       </c>
       <c r="AZ122">
-        <v>2800</v>
+        <v>59500</v>
       </c>
       <c r="BA122">
         <v>0</v>
@@ -38357,8 +39244,14 @@
       <c r="BB122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC122">
+        <v>20100</v>
+      </c>
+      <c r="BD122">
+        <v>79900</v>
+      </c>
+    </row>
+    <row r="123" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -38498,10 +39391,10 @@
         <v>20000</v>
       </c>
       <c r="AY123">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AZ123">
-        <v>44000</v>
+        <v>50000</v>
       </c>
       <c r="BA123">
         <v>0</v>
@@ -38509,8 +39402,14 @@
       <c r="BB123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC123">
+        <v>3600</v>
+      </c>
+      <c r="BD123">
+        <v>96400</v>
+      </c>
+    </row>
+    <row r="124" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -38649,8 +39548,14 @@
       <c r="BB124">
         <v>80000</v>
       </c>
-    </row>
-    <row r="125" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC124">
+        <v>20000</v>
+      </c>
+      <c r="BD124">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -38790,10 +39695,10 @@
         <v>15000</v>
       </c>
       <c r="AY125">
-        <v>35000</v>
+        <v>19600</v>
       </c>
       <c r="AZ125">
-        <v>35000</v>
+        <v>50400</v>
       </c>
       <c r="BA125">
         <v>0</v>
@@ -38801,8 +39706,14 @@
       <c r="BB125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC125">
+        <v>29600</v>
+      </c>
+      <c r="BD125">
+        <v>70400</v>
+      </c>
+    </row>
+    <row r="126" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -38941,8 +39852,14 @@
       <c r="BB126">
         <v>80000</v>
       </c>
-    </row>
-    <row r="127" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC126">
+        <v>20000</v>
+      </c>
+      <c r="BD126">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -39093,8 +40010,14 @@
       <c r="BB127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC127">
+        <v>100000</v>
+      </c>
+      <c r="BD127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -39237,10 +40160,10 @@
         <v>10000</v>
       </c>
       <c r="AY128">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="AZ128">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="BA128">
         <v>0</v>
@@ -39248,8 +40171,14 @@
       <c r="BB128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC128">
+        <v>65000</v>
+      </c>
+      <c r="BD128">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -39388,8 +40317,14 @@
       <c r="BB129">
         <v>70000</v>
       </c>
-    </row>
-    <row r="130" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC129">
+        <v>30000</v>
+      </c>
+      <c r="BD129">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -39529,10 +40464,10 @@
         <v>10000</v>
       </c>
       <c r="AY130">
-        <v>33500</v>
+        <v>10000</v>
       </c>
       <c r="AZ130">
-        <v>16500</v>
+        <v>40000</v>
       </c>
       <c r="BA130">
         <v>0</v>
@@ -39540,8 +40475,14 @@
       <c r="BB130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC130">
+        <v>40100</v>
+      </c>
+      <c r="BD130">
+        <v>59900</v>
+      </c>
+    </row>
+    <row r="131" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -39680,8 +40621,14 @@
       <c r="BB131">
         <v>80000</v>
       </c>
-    </row>
-    <row r="132" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC131">
+        <v>20000</v>
+      </c>
+      <c r="BD131">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -39821,19 +40768,25 @@
         <v>8600</v>
       </c>
       <c r="AY132">
+        <v>0</v>
+      </c>
+      <c r="AZ132">
         <v>50000</v>
       </c>
-      <c r="AZ132">
-        <v>0</v>
-      </c>
       <c r="BA132">
         <v>0</v>
       </c>
       <c r="BB132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC132">
+        <v>41400</v>
+      </c>
+      <c r="BD132">
+        <v>58600</v>
+      </c>
+    </row>
+    <row r="133" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -39984,8 +40937,14 @@
       <c r="BB133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC133">
+        <v>0</v>
+      </c>
+      <c r="BD133">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -40125,10 +41084,10 @@
         <v>16800</v>
       </c>
       <c r="AY134">
-        <v>8500</v>
+        <v>3000</v>
       </c>
       <c r="AZ134">
-        <v>41500</v>
+        <v>47000</v>
       </c>
       <c r="BA134">
         <v>0</v>
@@ -40136,8 +41095,14 @@
       <c r="BB134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC134">
+        <v>11300</v>
+      </c>
+      <c r="BD134">
+        <v>88700</v>
+      </c>
+    </row>
+    <row r="135" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -40291,8 +41256,14 @@
       <c r="BB135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC135">
+        <v>50000</v>
+      </c>
+      <c r="BD135">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -40431,8 +41402,14 @@
       <c r="BB136">
         <v>55000</v>
       </c>
-    </row>
-    <row r="137" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC136">
+        <v>45000</v>
+      </c>
+      <c r="BD136">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -40572,10 +41549,10 @@
         <v>13800</v>
       </c>
       <c r="AY137">
-        <v>33500</v>
+        <v>15000</v>
       </c>
       <c r="AZ137">
-        <v>16500</v>
+        <v>35000</v>
       </c>
       <c r="BA137">
         <v>0</v>
@@ -40583,8 +41560,14 @@
       <c r="BB137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC137">
+        <v>41300</v>
+      </c>
+      <c r="BD137">
+        <v>58700</v>
+      </c>
+    </row>
+    <row r="138" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -40724,10 +41707,10 @@
         <v>18000</v>
       </c>
       <c r="AY138">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="AZ138">
-        <v>63000</v>
+        <v>69300</v>
       </c>
       <c r="BA138">
         <v>0</v>
@@ -40735,8 +41718,14 @@
       <c r="BB138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC138">
+        <v>3700</v>
+      </c>
+      <c r="BD138">
+        <v>96300</v>
+      </c>
+    </row>
+    <row r="139" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -40875,8 +41864,14 @@
       <c r="BB139">
         <v>100000</v>
       </c>
-    </row>
-    <row r="140" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC139">
+        <v>0</v>
+      </c>
+      <c r="BD139">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -41013,10 +42008,10 @@
         <v>15000</v>
       </c>
       <c r="AY140">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="AZ140">
-        <v>43000</v>
+        <v>40000</v>
       </c>
       <c r="BA140">
         <v>0</v>
@@ -41024,8 +42019,14 @@
       <c r="BB140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC140">
+        <v>19200</v>
+      </c>
+      <c r="BD140">
+        <v>80800</v>
+      </c>
+    </row>
+    <row r="141" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -41176,8 +42177,14 @@
       <c r="BB141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC141">
+        <v>11000</v>
+      </c>
+      <c r="BD141">
+        <v>89000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -41316,8 +42323,14 @@
       <c r="BB142">
         <v>96000</v>
       </c>
-    </row>
-    <row r="143" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC142">
+        <v>4000</v>
+      </c>
+      <c r="BD142">
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -41457,10 +42470,10 @@
         <v>18800</v>
       </c>
       <c r="AY143">
-        <v>11200</v>
+        <v>18200</v>
       </c>
       <c r="AZ143">
-        <v>58800</v>
+        <v>51800</v>
       </c>
       <c r="BA143">
         <v>0</v>
@@ -41468,8 +42481,14 @@
       <c r="BB143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC143">
+        <v>21000</v>
+      </c>
+      <c r="BD143">
+        <v>79000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -41606,10 +42625,10 @@
         <v>15000</v>
       </c>
       <c r="AY144">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="AZ144">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="BA144">
         <v>0</v>
@@ -41617,8 +42636,14 @@
       <c r="BB144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC144">
+        <v>30000</v>
+      </c>
+      <c r="BD144">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -41769,8 +42794,14 @@
       <c r="BB145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC145">
+        <v>36200</v>
+      </c>
+      <c r="BD145">
+        <v>63800</v>
+      </c>
+    </row>
+    <row r="146" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -41910,10 +42941,10 @@
         <v>20000</v>
       </c>
       <c r="AY146">
-        <v>8500</v>
+        <v>0</v>
       </c>
       <c r="AZ146">
-        <v>41500</v>
+        <v>50000</v>
       </c>
       <c r="BA146">
         <v>0</v>
@@ -41921,8 +42952,14 @@
       <c r="BB146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC146">
+        <v>5100</v>
+      </c>
+      <c r="BD146">
+        <v>94900</v>
+      </c>
+    </row>
+    <row r="147" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -42061,8 +43098,14 @@
       <c r="BB147">
         <v>90000</v>
       </c>
-    </row>
-    <row r="148" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC147">
+        <v>10000</v>
+      </c>
+      <c r="BD147">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -42202,19 +43245,25 @@
         <v>10000</v>
       </c>
       <c r="AY148">
+        <v>0</v>
+      </c>
+      <c r="AZ148">
+        <v>50000</v>
+      </c>
+      <c r="BA148">
+        <v>0</v>
+      </c>
+      <c r="BB148">
+        <v>0</v>
+      </c>
+      <c r="BC148">
         <v>25000</v>
       </c>
-      <c r="AZ148">
-        <v>25000</v>
-      </c>
-      <c r="BA148">
-        <v>0</v>
-      </c>
-      <c r="BB148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BD148">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -42350,8 +43399,14 @@
       <c r="BB149">
         <v>25000</v>
       </c>
-    </row>
-    <row r="150" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC149">
+        <v>75000</v>
+      </c>
+      <c r="BD149">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -42491,10 +43546,10 @@
         <v>14200</v>
       </c>
       <c r="AY150">
-        <v>25000</v>
+        <v>15500</v>
       </c>
       <c r="AZ150">
-        <v>25000</v>
+        <v>34500</v>
       </c>
       <c r="BA150">
         <v>0</v>
@@ -42502,8 +43557,14 @@
       <c r="BB150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC150">
+        <v>36300</v>
+      </c>
+      <c r="BD150">
+        <v>63700</v>
+      </c>
+    </row>
+    <row r="151" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -42642,8 +43703,14 @@
       <c r="BB151">
         <v>84000</v>
       </c>
-    </row>
-    <row r="152" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC151">
+        <v>16000</v>
+      </c>
+      <c r="BD151">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -42782,8 +43849,14 @@
       <c r="BB152">
         <v>74000</v>
       </c>
-    </row>
-    <row r="153" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC152">
+        <v>26000</v>
+      </c>
+      <c r="BD152">
+        <v>74000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -42923,10 +43996,10 @@
         <v>17000</v>
       </c>
       <c r="AY153">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="AZ153">
-        <v>44500</v>
+        <v>40000</v>
       </c>
       <c r="BA153">
         <v>0</v>
@@ -42934,8 +44007,14 @@
       <c r="BB153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC153">
+        <v>16300</v>
+      </c>
+      <c r="BD153">
+        <v>83700</v>
+      </c>
+    </row>
+    <row r="154" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -43075,10 +44154,10 @@
         <v>11800</v>
       </c>
       <c r="AY154">
-        <v>22400</v>
+        <v>19600</v>
       </c>
       <c r="AZ154">
-        <v>47600</v>
+        <v>50400</v>
       </c>
       <c r="BA154">
         <v>0</v>
@@ -43086,8 +44165,14 @@
       <c r="BB154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC154">
+        <v>31000</v>
+      </c>
+      <c r="BD154">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -43227,10 +44312,10 @@
         <v>16800</v>
       </c>
       <c r="AY155">
-        <v>40500</v>
+        <v>9000</v>
       </c>
       <c r="AZ155">
-        <v>9500</v>
+        <v>41000</v>
       </c>
       <c r="BA155">
         <v>0</v>
@@ -43238,8 +44323,14 @@
       <c r="BB155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC155">
+        <v>36500</v>
+      </c>
+      <c r="BD155">
+        <v>63500</v>
+      </c>
+    </row>
+    <row r="156" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -43379,10 +44470,10 @@
         <v>20000</v>
       </c>
       <c r="AY156">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="AZ156">
-        <v>35000</v>
+        <v>70000</v>
       </c>
       <c r="BA156">
         <v>0</v>
@@ -43390,8 +44481,14 @@
       <c r="BB156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC156">
+        <v>5000</v>
+      </c>
+      <c r="BD156">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -43530,8 +44627,14 @@
       <c r="BB157">
         <v>70000</v>
       </c>
-    </row>
-    <row r="158" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC157">
+        <v>30000</v>
+      </c>
+      <c r="BD157">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -43671,19 +44774,25 @@
         <v>15000</v>
       </c>
       <c r="AY158">
+        <v>9000</v>
+      </c>
+      <c r="AZ158">
+        <v>41000</v>
+      </c>
+      <c r="BA158">
+        <v>0</v>
+      </c>
+      <c r="BB158">
+        <v>0</v>
+      </c>
+      <c r="BC158">
         <v>35000</v>
       </c>
-      <c r="AZ158">
-        <v>15000</v>
-      </c>
-      <c r="BA158">
-        <v>0</v>
-      </c>
-      <c r="BB158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BD158">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -43822,8 +44931,14 @@
       <c r="BB159">
         <v>80000</v>
       </c>
-    </row>
-    <row r="160" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC159">
+        <v>20000</v>
+      </c>
+      <c r="BD159">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -43963,10 +45078,10 @@
         <v>16800</v>
       </c>
       <c r="AY160">
-        <v>50400</v>
+        <v>13300</v>
       </c>
       <c r="AZ160">
-        <v>19600</v>
+        <v>56700</v>
       </c>
       <c r="BA160">
         <v>0</v>
@@ -43974,8 +45089,14 @@
       <c r="BB160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC160">
+        <v>23700</v>
+      </c>
+      <c r="BD160">
+        <v>76300</v>
+      </c>
+    </row>
+    <row r="161" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -44115,10 +45236,10 @@
         <v>8800</v>
       </c>
       <c r="AY161">
-        <v>43000</v>
+        <v>40000</v>
       </c>
       <c r="AZ161">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="BA161">
         <v>0</v>
@@ -44126,8 +45247,14 @@
       <c r="BB161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC161">
+        <v>77000</v>
+      </c>
+      <c r="BD161">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -44267,6 +45394,12 @@
         <v>0</v>
       </c>
       <c r="BB162">
+        <v>100000</v>
+      </c>
+      <c r="BC162">
+        <v>0</v>
+      </c>
+      <c r="BD162">
         <v>100000</v>
       </c>
     </row>

--- a/Auswertung_Hauptstudie/data_masterstudie_filtered_1.xlsx
+++ b/Auswertung_Hauptstudie/data_masterstudie_filtered_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Psychologie\Masterarbeit\Masterarbeit\Auswertung_Hauptstudie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D464C70D-C032-43C3-B6E7-0E62A481D84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960F0C2A-CC02-4040-A574-C2F17FD9F4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="160">
   <si>
     <t>FS01_CP</t>
   </si>
@@ -479,6 +479,51 @@
   </si>
   <si>
     <t>Gruppe A</t>
+  </si>
+  <si>
+    <t>Riskant Gruppe A</t>
+  </si>
+  <si>
+    <t>RISK_LOTTO_GRUPPE_A_NORM</t>
+  </si>
+  <si>
+    <t>RISK_LOTTO_GRUPPE_B_NORM</t>
+  </si>
+  <si>
+    <t>SAFE_LOTTO_GRUPPE_A_NORM</t>
+  </si>
+  <si>
+    <t>SAFE_LOTTO_GRUPPE_B_NORM</t>
+  </si>
+  <si>
+    <t>RISK_ERSPART_GRUPPE_A_NORM</t>
+  </si>
+  <si>
+    <t>RISK_ERSPART_GRUPPE_B_NORM</t>
+  </si>
+  <si>
+    <t>SAFE_ERSPART_GRUPPE_A_NORM</t>
+  </si>
+  <si>
+    <t>SAFE_ERSPART_GRUPPE_B_NORM</t>
+  </si>
+  <si>
+    <t>RISK_ERBE_GRUPPE_A_NORM</t>
+  </si>
+  <si>
+    <t>RISK_ERBE_GRUPPE_B_NORM</t>
+  </si>
+  <si>
+    <t>SAFE_ERBE_GRUPPE_A_NORM</t>
+  </si>
+  <si>
+    <t>SAFE_ERBE_GRUPPE_B_NORM</t>
+  </si>
+  <si>
+    <t>RISK_KONTROLLE_NORM</t>
+  </si>
+  <si>
+    <t>SAFE_KONTROLLE_NORM</t>
   </si>
 </sst>
 </file>
@@ -24450,10 +24495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ162"/>
+  <dimension ref="A1:BX162"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection sqref="A1:BX162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24468,7 +24513,7 @@
     <col min="58" max="58" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24605,55 +24650,97 @@
         <v>44</v>
       </c>
       <c r="AU1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BI1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -24781,31 +24868,49 @@
         <v>47</v>
       </c>
       <c r="AU2">
+        <v>82</v>
+      </c>
+      <c r="AW2">
+        <v>18</v>
+      </c>
+      <c r="AY2">
+        <v>8</v>
+      </c>
+      <c r="BA2">
+        <v>92</v>
+      </c>
+      <c r="BC2">
+        <v>52</v>
+      </c>
+      <c r="BE2">
+        <v>48</v>
+      </c>
+      <c r="BI2">
         <v>8200</v>
       </c>
-      <c r="AW2">
+      <c r="BK2">
         <v>1800</v>
       </c>
-      <c r="AY2">
+      <c r="BM2">
         <v>1600</v>
       </c>
-      <c r="BA2">
+      <c r="BO2">
         <v>18400</v>
       </c>
-      <c r="BC2">
+      <c r="BQ2">
         <v>36400</v>
       </c>
-      <c r="BE2">
+      <c r="BS2">
         <v>33600</v>
       </c>
-      <c r="BI2">
+      <c r="BW2">
         <v>46200</v>
       </c>
-      <c r="BJ2">
+      <c r="BX2">
         <v>53800</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -24930,31 +25035,49 @@
         <v>49</v>
       </c>
       <c r="AV3">
+        <v>20</v>
+      </c>
+      <c r="AX3">
+        <v>80</v>
+      </c>
+      <c r="AZ3">
+        <v>20</v>
+      </c>
+      <c r="BB3">
+        <v>80</v>
+      </c>
+      <c r="BD3">
+        <v>20</v>
+      </c>
+      <c r="BF3">
+        <v>80</v>
+      </c>
+      <c r="BJ3">
         <v>6000</v>
       </c>
-      <c r="AX3">
+      <c r="BL3">
         <v>24000</v>
       </c>
-      <c r="AZ3">
+      <c r="BN3">
         <v>4000</v>
       </c>
-      <c r="BB3">
+      <c r="BP3">
         <v>16000</v>
       </c>
-      <c r="BD3">
+      <c r="BR3">
         <v>10000</v>
       </c>
-      <c r="BF3">
+      <c r="BT3">
         <v>40000</v>
       </c>
-      <c r="BI3">
+      <c r="BW3">
         <v>20000</v>
       </c>
-      <c r="BJ3">
+      <c r="BX3">
         <v>80000</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -25070,19 +25193,25 @@
         <v>51</v>
       </c>
       <c r="BG4">
+        <v>28</v>
+      </c>
+      <c r="BH4">
+        <v>72</v>
+      </c>
+      <c r="BU4">
         <v>28000</v>
       </c>
-      <c r="BH4">
+      <c r="BV4">
         <v>72000</v>
       </c>
-      <c r="BI4">
+      <c r="BW4">
         <v>28000</v>
       </c>
-      <c r="BJ4">
+      <c r="BX4">
         <v>72000</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -25198,19 +25327,25 @@
         <v>48</v>
       </c>
       <c r="BG5">
+        <v>50</v>
+      </c>
+      <c r="BH5">
+        <v>50</v>
+      </c>
+      <c r="BU5">
         <v>50000</v>
       </c>
-      <c r="BH5">
+      <c r="BV5">
         <v>50000</v>
       </c>
-      <c r="BI5">
+      <c r="BW5">
         <v>50000</v>
       </c>
-      <c r="BJ5">
+      <c r="BX5">
         <v>50000</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -25341,28 +25476,46 @@
         <v>0</v>
       </c>
       <c r="AX6">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AZ6">
         <v>0</v>
       </c>
       <c r="BB6">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BD6">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="BF6">
         <v>0</v>
       </c>
-      <c r="BI6">
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>30000</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>20000</v>
+      </c>
+      <c r="BR6">
         <v>50000</v>
       </c>
-      <c r="BJ6">
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
         <v>50000</v>
       </c>
-    </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BX6">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -25490,28 +25643,46 @@
         <v>0</v>
       </c>
       <c r="AX7">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AZ7">
         <v>0</v>
       </c>
       <c r="BB7">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BD7">
         <v>0</v>
       </c>
       <c r="BF7">
+        <v>100</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>30000</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>20000</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
         <v>50000</v>
       </c>
-      <c r="BI7">
+      <c r="BW7">
         <v>0</v>
       </c>
-      <c r="BJ7">
+      <c r="BX7">
         <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -25627,19 +25798,25 @@
         <v>49</v>
       </c>
       <c r="BG8">
+        <v>50</v>
+      </c>
+      <c r="BH8">
+        <v>50</v>
+      </c>
+      <c r="BU8">
         <v>50000</v>
       </c>
-      <c r="BH8">
+      <c r="BV8">
         <v>50000</v>
       </c>
-      <c r="BI8">
+      <c r="BW8">
         <v>50000</v>
       </c>
-      <c r="BJ8">
+      <c r="BX8">
         <v>50000</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -25767,31 +25944,49 @@
         <v>49</v>
       </c>
       <c r="AV9">
+        <v>39</v>
+      </c>
+      <c r="AX9">
+        <v>61</v>
+      </c>
+      <c r="AZ9">
+        <v>11</v>
+      </c>
+      <c r="BB9">
+        <v>89</v>
+      </c>
+      <c r="BD9">
+        <v>24</v>
+      </c>
+      <c r="BF9">
+        <v>76</v>
+      </c>
+      <c r="BJ9">
         <v>11700</v>
       </c>
-      <c r="AX9">
+      <c r="BL9">
         <v>18300</v>
       </c>
-      <c r="AZ9">
+      <c r="BN9">
         <v>2200</v>
       </c>
-      <c r="BB9">
+      <c r="BP9">
         <v>17800</v>
       </c>
-      <c r="BD9">
+      <c r="BR9">
         <v>12000</v>
       </c>
-      <c r="BF9">
+      <c r="BT9">
         <v>38000</v>
       </c>
-      <c r="BI9">
+      <c r="BW9">
         <v>25900</v>
       </c>
-      <c r="BJ9">
+      <c r="BX9">
         <v>74100</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -25922,31 +26117,49 @@
         <v>51</v>
       </c>
       <c r="AU10">
+        <v>1</v>
+      </c>
+      <c r="AW10">
+        <v>99</v>
+      </c>
+      <c r="AY10">
+        <v>14</v>
+      </c>
+      <c r="BA10">
+        <v>86</v>
+      </c>
+      <c r="BC10">
+        <v>3</v>
+      </c>
+      <c r="BE10">
+        <v>97</v>
+      </c>
+      <c r="BI10">
         <v>100</v>
       </c>
-      <c r="AW10">
+      <c r="BK10">
         <v>9900</v>
       </c>
-      <c r="AY10">
+      <c r="BM10">
         <v>2800</v>
       </c>
-      <c r="BA10">
+      <c r="BO10">
         <v>17200</v>
       </c>
-      <c r="BC10">
+      <c r="BQ10">
         <v>2100</v>
       </c>
-      <c r="BE10">
+      <c r="BS10">
         <v>67900</v>
       </c>
-      <c r="BI10">
+      <c r="BW10">
         <v>5000</v>
       </c>
-      <c r="BJ10">
+      <c r="BX10">
         <v>95000</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -26062,19 +26275,25 @@
         <v>51</v>
       </c>
       <c r="BG11">
+        <v>50</v>
+      </c>
+      <c r="BH11">
+        <v>50</v>
+      </c>
+      <c r="BU11">
         <v>50000</v>
       </c>
-      <c r="BH11">
+      <c r="BV11">
         <v>50000</v>
       </c>
-      <c r="BI11">
+      <c r="BW11">
         <v>50000</v>
       </c>
-      <c r="BJ11">
+      <c r="BX11">
         <v>50000</v>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -26190,19 +26409,25 @@
         <v>51</v>
       </c>
       <c r="BG12">
+        <v>50</v>
+      </c>
+      <c r="BH12">
+        <v>50</v>
+      </c>
+      <c r="BU12">
         <v>50000</v>
       </c>
-      <c r="BH12">
+      <c r="BV12">
         <v>50000</v>
       </c>
-      <c r="BI12">
+      <c r="BW12">
         <v>50000</v>
       </c>
-      <c r="BJ12">
+      <c r="BX12">
         <v>50000</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -26330,7 +26555,7 @@
         <v>47</v>
       </c>
       <c r="AV13">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AX13">
         <v>0</v>
@@ -26339,22 +26564,40 @@
         <v>0</v>
       </c>
       <c r="BB13">
+        <v>100</v>
+      </c>
+      <c r="BD13">
+        <v>60</v>
+      </c>
+      <c r="BF13">
+        <v>40</v>
+      </c>
+      <c r="BJ13">
+        <v>30000</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
         <v>20000</v>
       </c>
-      <c r="BD13">
+      <c r="BR13">
         <v>30000</v>
       </c>
-      <c r="BF13">
+      <c r="BT13">
         <v>20000</v>
       </c>
-      <c r="BI13">
+      <c r="BW13">
         <v>60000</v>
       </c>
-      <c r="BJ13">
+      <c r="BX13">
         <v>40000</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -26482,31 +26725,49 @@
         <v>49</v>
       </c>
       <c r="AV14">
-        <v>20100</v>
+        <v>67</v>
       </c>
       <c r="AX14">
-        <v>9900</v>
+        <v>33</v>
       </c>
       <c r="AZ14">
         <v>0</v>
       </c>
       <c r="BB14">
+        <v>100</v>
+      </c>
+      <c r="BD14">
+        <v>19</v>
+      </c>
+      <c r="BF14">
+        <v>81</v>
+      </c>
+      <c r="BJ14">
+        <v>20100</v>
+      </c>
+      <c r="BL14">
+        <v>9900</v>
+      </c>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BP14">
         <v>20000</v>
       </c>
-      <c r="BD14">
+      <c r="BR14">
         <v>9500</v>
       </c>
-      <c r="BF14">
+      <c r="BT14">
         <v>40500</v>
       </c>
-      <c r="BI14">
+      <c r="BW14">
         <v>29600</v>
       </c>
-      <c r="BJ14">
+      <c r="BX14">
         <v>70400</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -26634,31 +26895,49 @@
         <v>49</v>
       </c>
       <c r="AU15">
+        <v>27</v>
+      </c>
+      <c r="AW15">
+        <v>73</v>
+      </c>
+      <c r="AY15">
+        <v>23</v>
+      </c>
+      <c r="BA15">
+        <v>77</v>
+      </c>
+      <c r="BC15">
+        <v>8</v>
+      </c>
+      <c r="BE15">
+        <v>92</v>
+      </c>
+      <c r="BI15">
         <v>2700</v>
       </c>
-      <c r="AW15">
+      <c r="BK15">
         <v>7300</v>
       </c>
-      <c r="AY15">
+      <c r="BM15">
         <v>4600</v>
       </c>
-      <c r="BA15">
+      <c r="BO15">
         <v>15400</v>
       </c>
-      <c r="BC15">
+      <c r="BQ15">
         <v>5600</v>
       </c>
-      <c r="BE15">
+      <c r="BS15">
         <v>64400</v>
       </c>
-      <c r="BI15">
+      <c r="BW15">
         <v>12900</v>
       </c>
-      <c r="BJ15">
+      <c r="BX15">
         <v>87100</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -26774,19 +27053,25 @@
         <v>47</v>
       </c>
       <c r="BG16">
+        <v>25</v>
+      </c>
+      <c r="BH16">
+        <v>75</v>
+      </c>
+      <c r="BU16">
         <v>25000</v>
       </c>
-      <c r="BH16">
+      <c r="BV16">
         <v>75000</v>
       </c>
-      <c r="BI16">
+      <c r="BW16">
         <v>25000</v>
       </c>
-      <c r="BJ16">
+      <c r="BX16">
         <v>75000</v>
       </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -26902,19 +27187,25 @@
         <v>47</v>
       </c>
       <c r="BG17">
+        <v>15</v>
+      </c>
+      <c r="BH17">
+        <v>85</v>
+      </c>
+      <c r="BU17">
         <v>15000</v>
       </c>
-      <c r="BH17">
+      <c r="BV17">
         <v>85000</v>
       </c>
-      <c r="BI17">
+      <c r="BW17">
         <v>15000</v>
       </c>
-      <c r="BJ17">
+      <c r="BX17">
         <v>85000</v>
       </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -27045,28 +27336,46 @@
         <v>0</v>
       </c>
       <c r="AX18">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AZ18">
         <v>0</v>
       </c>
       <c r="BB18">
+        <v>100</v>
+      </c>
+      <c r="BD18">
+        <v>50</v>
+      </c>
+      <c r="BF18">
+        <v>50</v>
+      </c>
+      <c r="BJ18">
+        <v>0</v>
+      </c>
+      <c r="BL18">
+        <v>30000</v>
+      </c>
+      <c r="BN18">
+        <v>0</v>
+      </c>
+      <c r="BP18">
         <v>20000</v>
       </c>
-      <c r="BD18">
+      <c r="BR18">
         <v>25000</v>
       </c>
-      <c r="BF18">
+      <c r="BT18">
         <v>25000</v>
       </c>
-      <c r="BI18">
+      <c r="BW18">
         <v>25000</v>
       </c>
-      <c r="BJ18">
+      <c r="BX18">
         <v>75000</v>
       </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -27194,31 +27503,49 @@
         <v>47</v>
       </c>
       <c r="AU19">
+        <v>80</v>
+      </c>
+      <c r="AW19">
+        <v>20</v>
+      </c>
+      <c r="AY19">
+        <v>33</v>
+      </c>
+      <c r="BA19">
+        <v>67</v>
+      </c>
+      <c r="BC19">
+        <v>30</v>
+      </c>
+      <c r="BE19">
+        <v>70</v>
+      </c>
+      <c r="BI19">
         <v>8000</v>
       </c>
-      <c r="AW19">
+      <c r="BK19">
         <v>2000</v>
       </c>
-      <c r="AY19">
+      <c r="BM19">
         <v>6600</v>
       </c>
-      <c r="BA19">
+      <c r="BO19">
         <v>13400</v>
       </c>
-      <c r="BC19">
+      <c r="BQ19">
         <v>21000</v>
       </c>
-      <c r="BE19">
+      <c r="BS19">
         <v>49000</v>
       </c>
-      <c r="BI19">
+      <c r="BW19">
         <v>35600</v>
       </c>
-      <c r="BJ19">
+      <c r="BX19">
         <v>64400</v>
       </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -27346,31 +27673,49 @@
         <v>51</v>
       </c>
       <c r="AV20">
+        <v>51</v>
+      </c>
+      <c r="AX20">
+        <v>49</v>
+      </c>
+      <c r="AZ20">
+        <v>48</v>
+      </c>
+      <c r="BB20">
+        <v>52</v>
+      </c>
+      <c r="BD20">
+        <v>49</v>
+      </c>
+      <c r="BF20">
+        <v>51</v>
+      </c>
+      <c r="BJ20">
         <v>15300</v>
       </c>
-      <c r="AX20">
+      <c r="BL20">
         <v>14700</v>
       </c>
-      <c r="AZ20">
+      <c r="BN20">
         <v>9600</v>
       </c>
-      <c r="BB20">
+      <c r="BP20">
         <v>10400</v>
       </c>
-      <c r="BD20">
+      <c r="BR20">
         <v>24500</v>
       </c>
-      <c r="BF20">
+      <c r="BT20">
         <v>25500</v>
       </c>
-      <c r="BI20">
+      <c r="BW20">
         <v>49400</v>
       </c>
-      <c r="BJ20">
+      <c r="BX20">
         <v>50600</v>
       </c>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -27486,19 +27831,25 @@
         <v>49</v>
       </c>
       <c r="BG21">
+        <v>70</v>
+      </c>
+      <c r="BH21">
+        <v>30</v>
+      </c>
+      <c r="BU21">
         <v>70000</v>
       </c>
-      <c r="BH21">
+      <c r="BV21">
         <v>30000</v>
       </c>
-      <c r="BI21">
+      <c r="BW21">
         <v>70000</v>
       </c>
-      <c r="BJ21">
+      <c r="BX21">
         <v>30000</v>
       </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -27629,28 +27980,46 @@
         <v>0</v>
       </c>
       <c r="AW22">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AY22">
         <v>0</v>
       </c>
       <c r="BA22">
+        <v>100</v>
+      </c>
+      <c r="BC22">
+        <v>43</v>
+      </c>
+      <c r="BE22">
+        <v>57</v>
+      </c>
+      <c r="BI22">
+        <v>0</v>
+      </c>
+      <c r="BK22">
+        <v>10000</v>
+      </c>
+      <c r="BM22">
+        <v>0</v>
+      </c>
+      <c r="BO22">
         <v>20000</v>
       </c>
-      <c r="BC22">
+      <c r="BQ22">
         <v>30100</v>
       </c>
-      <c r="BE22">
+      <c r="BS22">
         <v>39900</v>
       </c>
-      <c r="BI22">
+      <c r="BW22">
         <v>30100</v>
       </c>
-      <c r="BJ22">
+      <c r="BX22">
         <v>69900</v>
       </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -27766,19 +28135,25 @@
         <v>48</v>
       </c>
       <c r="BG23">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="BH23">
         <v>0</v>
       </c>
-      <c r="BI23">
+      <c r="BU23">
         <v>100000</v>
       </c>
-      <c r="BJ23">
+      <c r="BV23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BW23">
+        <v>100000</v>
+      </c>
+      <c r="BX23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -27906,7 +28281,7 @@
         <v>52</v>
       </c>
       <c r="AU24">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AW24">
         <v>0</v>
@@ -27915,22 +28290,40 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC24">
         <v>0</v>
       </c>
       <c r="BE24">
-        <v>70000</v>
+        <v>100</v>
       </c>
       <c r="BI24">
         <v>10000</v>
       </c>
-      <c r="BJ24">
+      <c r="BK24">
+        <v>0</v>
+      </c>
+      <c r="BM24">
+        <v>0</v>
+      </c>
+      <c r="BO24">
+        <v>20000</v>
+      </c>
+      <c r="BQ24">
+        <v>0</v>
+      </c>
+      <c r="BS24">
+        <v>70000</v>
+      </c>
+      <c r="BW24">
+        <v>10000</v>
+      </c>
+      <c r="BX24">
         <v>90000</v>
       </c>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -28058,31 +28451,49 @@
         <v>52</v>
       </c>
       <c r="AV25">
+        <v>84</v>
+      </c>
+      <c r="AX25">
+        <v>16</v>
+      </c>
+      <c r="AZ25">
+        <v>6</v>
+      </c>
+      <c r="BB25">
+        <v>94</v>
+      </c>
+      <c r="BD25">
+        <v>10</v>
+      </c>
+      <c r="BF25">
+        <v>90</v>
+      </c>
+      <c r="BJ25">
         <v>25200</v>
       </c>
-      <c r="AX25">
+      <c r="BL25">
         <v>4800</v>
       </c>
-      <c r="AZ25">
+      <c r="BN25">
         <v>1200</v>
       </c>
-      <c r="BB25">
+      <c r="BP25">
         <v>18800</v>
       </c>
-      <c r="BD25">
+      <c r="BR25">
         <v>5000</v>
       </c>
-      <c r="BF25">
+      <c r="BT25">
         <v>45000</v>
       </c>
-      <c r="BI25">
+      <c r="BW25">
         <v>31400</v>
       </c>
-      <c r="BJ25">
+      <c r="BX25">
         <v>68600</v>
       </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -28198,16 +28609,22 @@
         <v>0</v>
       </c>
       <c r="BH26">
+        <v>100</v>
+      </c>
+      <c r="BU26">
+        <v>0</v>
+      </c>
+      <c r="BV26">
         <v>100000</v>
       </c>
-      <c r="BI26">
+      <c r="BW26">
         <v>0</v>
       </c>
-      <c r="BJ26">
+      <c r="BX26">
         <v>100000</v>
       </c>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -28335,31 +28752,49 @@
         <v>48</v>
       </c>
       <c r="AV27">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AX27">
         <v>0</v>
       </c>
       <c r="AZ27">
+        <v>82</v>
+      </c>
+      <c r="BB27">
+        <v>18</v>
+      </c>
+      <c r="BD27">
+        <v>31</v>
+      </c>
+      <c r="BF27">
+        <v>69</v>
+      </c>
+      <c r="BJ27">
+        <v>30000</v>
+      </c>
+      <c r="BL27">
+        <v>0</v>
+      </c>
+      <c r="BN27">
         <v>16400</v>
       </c>
-      <c r="BB27">
+      <c r="BP27">
         <v>3600</v>
       </c>
-      <c r="BD27">
+      <c r="BR27">
         <v>15500</v>
       </c>
-      <c r="BF27">
+      <c r="BT27">
         <v>34500</v>
       </c>
-      <c r="BI27">
+      <c r="BW27">
         <v>61900</v>
       </c>
-      <c r="BJ27">
+      <c r="BX27">
         <v>38100</v>
       </c>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -28487,31 +28922,49 @@
         <v>49</v>
       </c>
       <c r="AU28">
+        <v>79</v>
+      </c>
+      <c r="AW28">
+        <v>21</v>
+      </c>
+      <c r="AY28">
+        <v>72</v>
+      </c>
+      <c r="BA28">
+        <v>28</v>
+      </c>
+      <c r="BC28">
+        <v>72</v>
+      </c>
+      <c r="BE28">
+        <v>28</v>
+      </c>
+      <c r="BI28">
         <v>7900</v>
       </c>
-      <c r="AW28">
+      <c r="BK28">
         <v>2100</v>
       </c>
-      <c r="AY28">
+      <c r="BM28">
         <v>14400</v>
       </c>
-      <c r="BA28">
+      <c r="BO28">
         <v>5600</v>
       </c>
-      <c r="BC28">
+      <c r="BQ28">
         <v>50400</v>
       </c>
-      <c r="BE28">
+      <c r="BS28">
         <v>19600</v>
       </c>
-      <c r="BI28">
+      <c r="BW28">
         <v>72700</v>
       </c>
-      <c r="BJ28">
+      <c r="BX28">
         <v>27300</v>
       </c>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -28621,19 +29074,25 @@
         <v>48</v>
       </c>
       <c r="BG29">
+        <v>25</v>
+      </c>
+      <c r="BH29">
+        <v>75</v>
+      </c>
+      <c r="BU29">
         <v>25000</v>
       </c>
-      <c r="BH29">
+      <c r="BV29">
         <v>75000</v>
       </c>
-      <c r="BI29">
+      <c r="BW29">
         <v>25000</v>
       </c>
-      <c r="BJ29">
+      <c r="BX29">
         <v>75000</v>
       </c>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -28767,28 +29226,46 @@
         <v>0</v>
       </c>
       <c r="AX30">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AZ30">
         <v>0</v>
       </c>
       <c r="BB30">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BD30">
         <v>0</v>
       </c>
       <c r="BF30">
+        <v>100</v>
+      </c>
+      <c r="BJ30">
+        <v>0</v>
+      </c>
+      <c r="BL30">
+        <v>30000</v>
+      </c>
+      <c r="BN30">
+        <v>0</v>
+      </c>
+      <c r="BP30">
+        <v>20000</v>
+      </c>
+      <c r="BR30">
+        <v>0</v>
+      </c>
+      <c r="BT30">
         <v>50000</v>
       </c>
-      <c r="BI30">
+      <c r="BW30">
         <v>0</v>
       </c>
-      <c r="BJ30">
+      <c r="BX30">
         <v>100000</v>
       </c>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -28904,19 +29381,25 @@
         <v>51</v>
       </c>
       <c r="BG31">
+        <v>10</v>
+      </c>
+      <c r="BH31">
+        <v>90</v>
+      </c>
+      <c r="BU31">
         <v>10000</v>
       </c>
-      <c r="BH31">
+      <c r="BV31">
         <v>90000</v>
       </c>
-      <c r="BI31">
+      <c r="BW31">
         <v>10000</v>
       </c>
-      <c r="BJ31">
+      <c r="BX31">
         <v>90000</v>
       </c>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -29044,31 +29527,49 @@
         <v>49</v>
       </c>
       <c r="AU32">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AW32">
         <v>0</v>
       </c>
       <c r="AY32">
+        <v>50</v>
+      </c>
+      <c r="BA32">
+        <v>50</v>
+      </c>
+      <c r="BC32">
+        <v>50</v>
+      </c>
+      <c r="BE32">
+        <v>50</v>
+      </c>
+      <c r="BI32">
         <v>10000</v>
       </c>
-      <c r="BA32">
+      <c r="BK32">
+        <v>0</v>
+      </c>
+      <c r="BM32">
         <v>10000</v>
       </c>
-      <c r="BC32">
+      <c r="BO32">
+        <v>10000</v>
+      </c>
+      <c r="BQ32">
         <v>35000</v>
       </c>
-      <c r="BE32">
+      <c r="BS32">
         <v>35000</v>
       </c>
-      <c r="BI32">
+      <c r="BW32">
         <v>55000</v>
       </c>
-      <c r="BJ32">
+      <c r="BX32">
         <v>45000</v>
       </c>
     </row>
-    <row r="33" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -29196,7 +29697,7 @@
         <v>47</v>
       </c>
       <c r="AU33">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AW33">
         <v>0</v>
@@ -29205,22 +29706,40 @@
         <v>0</v>
       </c>
       <c r="BA33">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC33">
         <v>0</v>
       </c>
       <c r="BE33">
-        <v>70000</v>
+        <v>100</v>
       </c>
       <c r="BI33">
         <v>10000</v>
       </c>
-      <c r="BJ33">
+      <c r="BK33">
+        <v>0</v>
+      </c>
+      <c r="BM33">
+        <v>0</v>
+      </c>
+      <c r="BO33">
+        <v>20000</v>
+      </c>
+      <c r="BQ33">
+        <v>0</v>
+      </c>
+      <c r="BS33">
+        <v>70000</v>
+      </c>
+      <c r="BW33">
+        <v>10000</v>
+      </c>
+      <c r="BX33">
         <v>90000</v>
       </c>
     </row>
-    <row r="34" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -29336,19 +29855,25 @@
         <v>51</v>
       </c>
       <c r="BG34">
+        <v>10</v>
+      </c>
+      <c r="BH34">
+        <v>90</v>
+      </c>
+      <c r="BU34">
         <v>10000</v>
       </c>
-      <c r="BH34">
+      <c r="BV34">
         <v>90000</v>
       </c>
-      <c r="BI34">
+      <c r="BW34">
         <v>10000</v>
       </c>
-      <c r="BJ34">
+      <c r="BX34">
         <v>90000</v>
       </c>
     </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -29479,31 +30004,49 @@
         <v>51</v>
       </c>
       <c r="AV35">
+        <v>18</v>
+      </c>
+      <c r="AX35">
+        <v>82</v>
+      </c>
+      <c r="AZ35">
+        <v>29</v>
+      </c>
+      <c r="BB35">
+        <v>71</v>
+      </c>
+      <c r="BD35">
+        <v>20</v>
+      </c>
+      <c r="BF35">
+        <v>80</v>
+      </c>
+      <c r="BJ35">
         <v>5400</v>
       </c>
-      <c r="AX35">
+      <c r="BL35">
         <v>24600</v>
       </c>
-      <c r="AZ35">
+      <c r="BN35">
         <v>5800</v>
       </c>
-      <c r="BB35">
+      <c r="BP35">
         <v>14200</v>
       </c>
-      <c r="BD35">
+      <c r="BR35">
         <v>10000</v>
       </c>
-      <c r="BF35">
+      <c r="BT35">
         <v>40000</v>
       </c>
-      <c r="BI35">
+      <c r="BW35">
         <v>21200</v>
       </c>
-      <c r="BJ35">
+      <c r="BX35">
         <v>78800</v>
       </c>
     </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -29631,31 +30174,49 @@
         <v>47</v>
       </c>
       <c r="AV36">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="AX36">
-        <v>29700</v>
+        <v>99</v>
       </c>
       <c r="AZ36">
         <v>0</v>
       </c>
       <c r="BB36">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BD36">
         <v>0</v>
       </c>
       <c r="BF36">
+        <v>100</v>
+      </c>
+      <c r="BJ36">
+        <v>300</v>
+      </c>
+      <c r="BL36">
+        <v>29700</v>
+      </c>
+      <c r="BN36">
+        <v>0</v>
+      </c>
+      <c r="BP36">
+        <v>20000</v>
+      </c>
+      <c r="BR36">
+        <v>0</v>
+      </c>
+      <c r="BT36">
         <v>50000</v>
       </c>
-      <c r="BI36">
+      <c r="BW36">
         <v>300</v>
       </c>
-      <c r="BJ36">
+      <c r="BX36">
         <v>99700</v>
       </c>
     </row>
-    <row r="37" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -29783,31 +30344,49 @@
         <v>47</v>
       </c>
       <c r="AU37">
+        <v>70</v>
+      </c>
+      <c r="AW37">
+        <v>30</v>
+      </c>
+      <c r="AY37">
+        <v>6</v>
+      </c>
+      <c r="BA37">
+        <v>94</v>
+      </c>
+      <c r="BC37">
+        <v>15</v>
+      </c>
+      <c r="BE37">
+        <v>85</v>
+      </c>
+      <c r="BI37">
         <v>7000</v>
       </c>
-      <c r="AW37">
+      <c r="BK37">
         <v>3000</v>
       </c>
-      <c r="AY37">
+      <c r="BM37">
         <v>1200</v>
       </c>
-      <c r="BA37">
+      <c r="BO37">
         <v>18800</v>
       </c>
-      <c r="BC37">
+      <c r="BQ37">
         <v>10500</v>
       </c>
-      <c r="BE37">
+      <c r="BS37">
         <v>59500</v>
       </c>
-      <c r="BI37">
+      <c r="BW37">
         <v>18700</v>
       </c>
-      <c r="BJ37">
+      <c r="BX37">
         <v>81300</v>
       </c>
     </row>
-    <row r="38" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -29935,31 +30514,49 @@
         <v>49</v>
       </c>
       <c r="AU38">
+        <v>80</v>
+      </c>
+      <c r="AW38">
+        <v>20</v>
+      </c>
+      <c r="AY38">
+        <v>26</v>
+      </c>
+      <c r="BA38">
+        <v>74</v>
+      </c>
+      <c r="BC38">
+        <v>37</v>
+      </c>
+      <c r="BE38">
+        <v>63</v>
+      </c>
+      <c r="BI38">
         <v>8000</v>
       </c>
-      <c r="AW38">
+      <c r="BK38">
         <v>2000</v>
       </c>
-      <c r="AY38">
+      <c r="BM38">
         <v>5200</v>
       </c>
-      <c r="BA38">
+      <c r="BO38">
         <v>14800</v>
       </c>
-      <c r="BC38">
+      <c r="BQ38">
         <v>25900</v>
       </c>
-      <c r="BE38">
+      <c r="BS38">
         <v>44100</v>
       </c>
-      <c r="BI38">
+      <c r="BW38">
         <v>39100</v>
       </c>
-      <c r="BJ38">
+      <c r="BX38">
         <v>60900</v>
       </c>
     </row>
-    <row r="39" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -30087,7 +30684,7 @@
         <v>52</v>
       </c>
       <c r="AV39">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AX39">
         <v>0</v>
@@ -30096,22 +30693,40 @@
         <v>0</v>
       </c>
       <c r="BB39">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BD39">
         <v>0</v>
       </c>
       <c r="BF39">
+        <v>100</v>
+      </c>
+      <c r="BJ39">
+        <v>30000</v>
+      </c>
+      <c r="BL39">
+        <v>0</v>
+      </c>
+      <c r="BN39">
+        <v>0</v>
+      </c>
+      <c r="BP39">
+        <v>20000</v>
+      </c>
+      <c r="BR39">
+        <v>0</v>
+      </c>
+      <c r="BT39">
         <v>50000</v>
       </c>
-      <c r="BI39">
+      <c r="BW39">
         <v>30000</v>
       </c>
-      <c r="BJ39">
+      <c r="BX39">
         <v>70000</v>
       </c>
     </row>
-    <row r="40" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -30242,28 +30857,46 @@
         <v>0</v>
       </c>
       <c r="AX40">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AZ40">
         <v>0</v>
       </c>
       <c r="BB40">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BD40">
         <v>0</v>
       </c>
       <c r="BF40">
+        <v>100</v>
+      </c>
+      <c r="BJ40">
+        <v>0</v>
+      </c>
+      <c r="BL40">
+        <v>30000</v>
+      </c>
+      <c r="BN40">
+        <v>0</v>
+      </c>
+      <c r="BP40">
+        <v>20000</v>
+      </c>
+      <c r="BR40">
+        <v>0</v>
+      </c>
+      <c r="BT40">
         <v>50000</v>
       </c>
-      <c r="BI40">
+      <c r="BW40">
         <v>0</v>
       </c>
-      <c r="BJ40">
+      <c r="BX40">
         <v>100000</v>
       </c>
     </row>
-    <row r="41" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -30391,31 +31024,49 @@
         <v>47</v>
       </c>
       <c r="AU41">
+        <v>61</v>
+      </c>
+      <c r="AW41">
+        <v>39</v>
+      </c>
+      <c r="AY41">
+        <v>42</v>
+      </c>
+      <c r="BA41">
+        <v>58</v>
+      </c>
+      <c r="BC41">
+        <v>61</v>
+      </c>
+      <c r="BE41">
+        <v>39</v>
+      </c>
+      <c r="BI41">
         <v>6100</v>
       </c>
-      <c r="AW41">
+      <c r="BK41">
         <v>3900</v>
       </c>
-      <c r="AY41">
+      <c r="BM41">
         <v>8400</v>
       </c>
-      <c r="BA41">
+      <c r="BO41">
         <v>11600</v>
       </c>
-      <c r="BC41">
+      <c r="BQ41">
         <v>42700</v>
       </c>
-      <c r="BE41">
+      <c r="BS41">
         <v>27300</v>
       </c>
-      <c r="BI41">
+      <c r="BW41">
         <v>57200</v>
       </c>
-      <c r="BJ41">
+      <c r="BX41">
         <v>42800</v>
       </c>
     </row>
-    <row r="42" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -30528,19 +31179,25 @@
         <v>48</v>
       </c>
       <c r="BG42">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="BH42">
         <v>0</v>
       </c>
-      <c r="BI42">
+      <c r="BU42">
         <v>100000</v>
       </c>
-      <c r="BJ42">
+      <c r="BV42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BW42">
+        <v>100000</v>
+      </c>
+      <c r="BX42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -30656,19 +31313,25 @@
         <v>47</v>
       </c>
       <c r="BG43">
+        <v>30</v>
+      </c>
+      <c r="BH43">
+        <v>70</v>
+      </c>
+      <c r="BU43">
         <v>30000</v>
       </c>
-      <c r="BH43">
+      <c r="BV43">
         <v>70000</v>
       </c>
-      <c r="BI43">
+      <c r="BW43">
         <v>30000</v>
       </c>
-      <c r="BJ43">
+      <c r="BX43">
         <v>70000</v>
       </c>
     </row>
-    <row r="44" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -30796,31 +31459,49 @@
         <v>49</v>
       </c>
       <c r="AV44">
-        <v>24000</v>
+        <v>80</v>
       </c>
       <c r="AX44">
-        <v>6000</v>
+        <v>20</v>
       </c>
       <c r="AZ44">
         <v>0</v>
       </c>
       <c r="BB44">
+        <v>100</v>
+      </c>
+      <c r="BD44">
+        <v>50</v>
+      </c>
+      <c r="BF44">
+        <v>50</v>
+      </c>
+      <c r="BJ44">
+        <v>24000</v>
+      </c>
+      <c r="BL44">
+        <v>6000</v>
+      </c>
+      <c r="BN44">
+        <v>0</v>
+      </c>
+      <c r="BP44">
         <v>20000</v>
       </c>
-      <c r="BD44">
+      <c r="BR44">
         <v>25000</v>
       </c>
-      <c r="BF44">
+      <c r="BT44">
         <v>25000</v>
       </c>
-      <c r="BI44">
+      <c r="BW44">
         <v>49000</v>
       </c>
-      <c r="BJ44">
+      <c r="BX44">
         <v>51000</v>
       </c>
     </row>
-    <row r="45" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -30948,31 +31629,49 @@
         <v>47</v>
       </c>
       <c r="AU45">
+        <v>19</v>
+      </c>
+      <c r="AW45">
+        <v>81</v>
+      </c>
+      <c r="AY45">
+        <v>25</v>
+      </c>
+      <c r="BA45">
+        <v>75</v>
+      </c>
+      <c r="BC45">
+        <v>29</v>
+      </c>
+      <c r="BE45">
+        <v>71</v>
+      </c>
+      <c r="BI45">
         <v>1900</v>
       </c>
-      <c r="AW45">
+      <c r="BK45">
         <v>8100</v>
       </c>
-      <c r="AY45">
+      <c r="BM45">
         <v>5000</v>
       </c>
-      <c r="BA45">
+      <c r="BO45">
         <v>15000</v>
       </c>
-      <c r="BC45">
+      <c r="BQ45">
         <v>20300</v>
       </c>
-      <c r="BE45">
+      <c r="BS45">
         <v>49700</v>
       </c>
-      <c r="BI45">
+      <c r="BW45">
         <v>27200</v>
       </c>
-      <c r="BJ45">
+      <c r="BX45">
         <v>72800</v>
       </c>
     </row>
-    <row r="46" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -31085,19 +31784,25 @@
         <v>51</v>
       </c>
       <c r="BG46">
+        <v>5</v>
+      </c>
+      <c r="BH46">
+        <v>95</v>
+      </c>
+      <c r="BU46">
         <v>5000</v>
       </c>
-      <c r="BH46">
+      <c r="BV46">
         <v>95000</v>
       </c>
-      <c r="BI46">
+      <c r="BW46">
         <v>5000</v>
       </c>
-      <c r="BJ46">
+      <c r="BX46">
         <v>95000</v>
       </c>
     </row>
-    <row r="47" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -31213,19 +31918,25 @@
         <v>47</v>
       </c>
       <c r="BG47">
+        <v>90</v>
+      </c>
+      <c r="BH47">
+        <v>10</v>
+      </c>
+      <c r="BU47">
         <v>90000</v>
       </c>
-      <c r="BH47">
+      <c r="BV47">
         <v>10000</v>
       </c>
-      <c r="BI47">
+      <c r="BW47">
         <v>90000</v>
       </c>
-      <c r="BJ47">
+      <c r="BX47">
         <v>10000</v>
       </c>
     </row>
-    <row r="48" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -31353,31 +32064,49 @@
         <v>52</v>
       </c>
       <c r="AV48">
+        <v>1</v>
+      </c>
+      <c r="AX48">
+        <v>99</v>
+      </c>
+      <c r="AZ48">
+        <v>1</v>
+      </c>
+      <c r="BB48">
+        <v>99</v>
+      </c>
+      <c r="BD48">
+        <v>1</v>
+      </c>
+      <c r="BF48">
+        <v>99</v>
+      </c>
+      <c r="BJ48">
         <v>300</v>
       </c>
-      <c r="AX48">
+      <c r="BL48">
         <v>29700</v>
       </c>
-      <c r="AZ48">
+      <c r="BN48">
         <v>200</v>
       </c>
-      <c r="BB48">
+      <c r="BP48">
         <v>19800</v>
       </c>
-      <c r="BD48">
+      <c r="BR48">
         <v>500</v>
       </c>
-      <c r="BF48">
+      <c r="BT48">
         <v>49500</v>
       </c>
-      <c r="BI48">
+      <c r="BW48">
         <v>1000</v>
       </c>
-      <c r="BJ48">
+      <c r="BX48">
         <v>99000</v>
       </c>
     </row>
-    <row r="49" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -31502,31 +32231,49 @@
         <v>47</v>
       </c>
       <c r="AU49">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="AW49">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="AY49">
         <v>0</v>
       </c>
       <c r="BA49">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC49">
         <v>0</v>
       </c>
       <c r="BE49">
-        <v>70000</v>
+        <v>100</v>
       </c>
       <c r="BI49">
         <v>5000</v>
       </c>
-      <c r="BJ49">
+      <c r="BK49">
+        <v>5000</v>
+      </c>
+      <c r="BM49">
+        <v>0</v>
+      </c>
+      <c r="BO49">
+        <v>20000</v>
+      </c>
+      <c r="BQ49">
+        <v>0</v>
+      </c>
+      <c r="BS49">
+        <v>70000</v>
+      </c>
+      <c r="BW49">
+        <v>5000</v>
+      </c>
+      <c r="BX49">
         <v>95000</v>
       </c>
     </row>
-    <row r="50" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -31639,19 +32386,25 @@
         <v>47</v>
       </c>
       <c r="BG50">
+        <v>10</v>
+      </c>
+      <c r="BH50">
+        <v>90</v>
+      </c>
+      <c r="BU50">
         <v>10000</v>
       </c>
-      <c r="BH50">
+      <c r="BV50">
         <v>90000</v>
       </c>
-      <c r="BI50">
+      <c r="BW50">
         <v>10000</v>
       </c>
-      <c r="BJ50">
+      <c r="BX50">
         <v>90000</v>
       </c>
     </row>
-    <row r="51" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -31779,31 +32532,49 @@
         <v>49</v>
       </c>
       <c r="AV51">
+        <v>50</v>
+      </c>
+      <c r="AX51">
+        <v>50</v>
+      </c>
+      <c r="AZ51">
+        <v>50</v>
+      </c>
+      <c r="BB51">
+        <v>50</v>
+      </c>
+      <c r="BD51">
+        <v>40</v>
+      </c>
+      <c r="BF51">
+        <v>60</v>
+      </c>
+      <c r="BJ51">
         <v>15000</v>
       </c>
-      <c r="AX51">
+      <c r="BL51">
         <v>15000</v>
       </c>
-      <c r="AZ51">
+      <c r="BN51">
         <v>10000</v>
       </c>
-      <c r="BB51">
+      <c r="BP51">
         <v>10000</v>
       </c>
-      <c r="BD51">
+      <c r="BR51">
         <v>20000</v>
       </c>
-      <c r="BF51">
+      <c r="BT51">
         <v>30000</v>
       </c>
-      <c r="BI51">
+      <c r="BW51">
         <v>45000</v>
       </c>
-      <c r="BJ51">
+      <c r="BX51">
         <v>55000</v>
       </c>
     </row>
-    <row r="52" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -31931,31 +32702,49 @@
         <v>47</v>
       </c>
       <c r="AU52">
+        <v>45</v>
+      </c>
+      <c r="AW52">
+        <v>55</v>
+      </c>
+      <c r="AY52">
+        <v>28</v>
+      </c>
+      <c r="BA52">
+        <v>72</v>
+      </c>
+      <c r="BC52">
+        <v>32</v>
+      </c>
+      <c r="BE52">
+        <v>68</v>
+      </c>
+      <c r="BI52">
         <v>4500</v>
       </c>
-      <c r="AW52">
+      <c r="BK52">
         <v>5500</v>
       </c>
-      <c r="AY52">
+      <c r="BM52">
         <v>5600</v>
       </c>
-      <c r="BA52">
+      <c r="BO52">
         <v>14400</v>
       </c>
-      <c r="BC52">
+      <c r="BQ52">
         <v>22400</v>
       </c>
-      <c r="BE52">
+      <c r="BS52">
         <v>47600</v>
       </c>
-      <c r="BI52">
+      <c r="BW52">
         <v>32500</v>
       </c>
-      <c r="BJ52">
+      <c r="BX52">
         <v>67500</v>
       </c>
     </row>
-    <row r="53" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -32083,31 +32872,49 @@
         <v>51</v>
       </c>
       <c r="AV53">
+        <v>50</v>
+      </c>
+      <c r="AX53">
+        <v>50</v>
+      </c>
+      <c r="AZ53">
+        <v>67</v>
+      </c>
+      <c r="BB53">
+        <v>33</v>
+      </c>
+      <c r="BD53">
+        <v>11</v>
+      </c>
+      <c r="BF53">
+        <v>89</v>
+      </c>
+      <c r="BJ53">
         <v>15000</v>
       </c>
-      <c r="AX53">
+      <c r="BL53">
         <v>15000</v>
       </c>
-      <c r="AZ53">
+      <c r="BN53">
         <v>13400</v>
       </c>
-      <c r="BB53">
+      <c r="BP53">
         <v>6600</v>
       </c>
-      <c r="BD53">
+      <c r="BR53">
         <v>5500</v>
       </c>
-      <c r="BF53">
+      <c r="BT53">
         <v>44500</v>
       </c>
-      <c r="BI53">
+      <c r="BW53">
         <v>33900</v>
       </c>
-      <c r="BJ53">
+      <c r="BX53">
         <v>66100</v>
       </c>
     </row>
-    <row r="54" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -32223,19 +33030,25 @@
         <v>47</v>
       </c>
       <c r="BG54">
+        <v>50</v>
+      </c>
+      <c r="BH54">
+        <v>50</v>
+      </c>
+      <c r="BU54">
         <v>50000</v>
       </c>
-      <c r="BH54">
+      <c r="BV54">
         <v>50000</v>
       </c>
-      <c r="BI54">
+      <c r="BW54">
         <v>50000</v>
       </c>
-      <c r="BJ54">
+      <c r="BX54">
         <v>50000</v>
       </c>
     </row>
-    <row r="55" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -32363,31 +33176,49 @@
         <v>47</v>
       </c>
       <c r="AU55">
+        <v>10</v>
+      </c>
+      <c r="AW55">
+        <v>90</v>
+      </c>
+      <c r="AY55">
+        <v>5</v>
+      </c>
+      <c r="BA55">
+        <v>95</v>
+      </c>
+      <c r="BC55">
+        <v>6</v>
+      </c>
+      <c r="BE55">
+        <v>94</v>
+      </c>
+      <c r="BI55">
         <v>1000</v>
       </c>
-      <c r="AW55">
+      <c r="BK55">
         <v>9000</v>
       </c>
-      <c r="AY55">
+      <c r="BM55">
         <v>1000</v>
       </c>
-      <c r="BA55">
+      <c r="BO55">
         <v>19000</v>
       </c>
-      <c r="BC55">
+      <c r="BQ55">
         <v>4200</v>
       </c>
-      <c r="BE55">
+      <c r="BS55">
         <v>65800</v>
       </c>
-      <c r="BI55">
+      <c r="BW55">
         <v>6200</v>
       </c>
-      <c r="BJ55">
+      <c r="BX55">
         <v>93800</v>
       </c>
     </row>
-    <row r="56" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -32503,19 +33334,25 @@
         <v>51</v>
       </c>
       <c r="BG56">
+        <v>43</v>
+      </c>
+      <c r="BH56">
+        <v>57</v>
+      </c>
+      <c r="BU56">
         <v>43000</v>
       </c>
-      <c r="BH56">
+      <c r="BV56">
         <v>57000</v>
       </c>
-      <c r="BI56">
+      <c r="BW56">
         <v>43000</v>
       </c>
-      <c r="BJ56">
+      <c r="BX56">
         <v>57000</v>
       </c>
     </row>
-    <row r="57" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -32643,31 +33480,49 @@
         <v>47</v>
       </c>
       <c r="AV57">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AX57">
         <v>0</v>
       </c>
       <c r="AZ57">
+        <v>10</v>
+      </c>
+      <c r="BB57">
+        <v>90</v>
+      </c>
+      <c r="BD57">
+        <v>10</v>
+      </c>
+      <c r="BF57">
+        <v>90</v>
+      </c>
+      <c r="BJ57">
+        <v>30000</v>
+      </c>
+      <c r="BL57">
+        <v>0</v>
+      </c>
+      <c r="BN57">
         <v>2000</v>
       </c>
-      <c r="BB57">
+      <c r="BP57">
         <v>18000</v>
       </c>
-      <c r="BD57">
+      <c r="BR57">
         <v>5000</v>
       </c>
-      <c r="BF57">
+      <c r="BT57">
         <v>45000</v>
       </c>
-      <c r="BI57">
+      <c r="BW57">
         <v>37000</v>
       </c>
-      <c r="BJ57">
+      <c r="BX57">
         <v>63000</v>
       </c>
     </row>
-    <row r="58" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -32795,31 +33650,49 @@
         <v>47</v>
       </c>
       <c r="AU58">
-        <v>5600</v>
+        <v>56</v>
       </c>
       <c r="AW58">
-        <v>4400</v>
+        <v>44</v>
       </c>
       <c r="AY58">
         <v>0</v>
       </c>
       <c r="BA58">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC58">
         <v>0</v>
       </c>
       <c r="BE58">
-        <v>70000</v>
+        <v>100</v>
       </c>
       <c r="BI58">
         <v>5600</v>
       </c>
-      <c r="BJ58">
+      <c r="BK58">
+        <v>4400</v>
+      </c>
+      <c r="BM58">
+        <v>0</v>
+      </c>
+      <c r="BO58">
+        <v>20000</v>
+      </c>
+      <c r="BQ58">
+        <v>0</v>
+      </c>
+      <c r="BS58">
+        <v>70000</v>
+      </c>
+      <c r="BW58">
+        <v>5600</v>
+      </c>
+      <c r="BX58">
         <v>94400</v>
       </c>
     </row>
-    <row r="59" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -32947,31 +33820,49 @@
         <v>47</v>
       </c>
       <c r="AV59">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AX59">
         <v>0</v>
       </c>
       <c r="AZ59">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="BB59">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="BD59">
         <v>0</v>
       </c>
       <c r="BF59">
+        <v>100</v>
+      </c>
+      <c r="BJ59">
+        <v>30000</v>
+      </c>
+      <c r="BL59">
+        <v>0</v>
+      </c>
+      <c r="BN59">
+        <v>10000</v>
+      </c>
+      <c r="BP59">
+        <v>10000</v>
+      </c>
+      <c r="BR59">
+        <v>0</v>
+      </c>
+      <c r="BT59">
         <v>50000</v>
       </c>
-      <c r="BI59">
+      <c r="BW59">
         <v>40000</v>
       </c>
-      <c r="BJ59">
+      <c r="BX59">
         <v>60000</v>
       </c>
     </row>
-    <row r="60" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -33087,19 +33978,25 @@
         <v>47</v>
       </c>
       <c r="BG60">
+        <v>37</v>
+      </c>
+      <c r="BH60">
+        <v>63</v>
+      </c>
+      <c r="BU60">
         <v>37000</v>
       </c>
-      <c r="BH60">
+      <c r="BV60">
         <v>63000</v>
       </c>
-      <c r="BI60">
+      <c r="BW60">
         <v>37000</v>
       </c>
-      <c r="BJ60">
+      <c r="BX60">
         <v>63000</v>
       </c>
     </row>
-    <row r="61" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -33227,31 +34124,49 @@
         <v>51</v>
       </c>
       <c r="AU61">
+        <v>5</v>
+      </c>
+      <c r="AW61">
+        <v>95</v>
+      </c>
+      <c r="AY61">
+        <v>5</v>
+      </c>
+      <c r="BA61">
+        <v>95</v>
+      </c>
+      <c r="BC61">
+        <v>5</v>
+      </c>
+      <c r="BE61">
+        <v>95</v>
+      </c>
+      <c r="BI61">
         <v>500</v>
       </c>
-      <c r="AW61">
+      <c r="BK61">
         <v>9500</v>
       </c>
-      <c r="AY61">
+      <c r="BM61">
         <v>1000</v>
       </c>
-      <c r="BA61">
+      <c r="BO61">
         <v>19000</v>
       </c>
-      <c r="BC61">
+      <c r="BQ61">
         <v>3500</v>
       </c>
-      <c r="BE61">
+      <c r="BS61">
         <v>66500</v>
       </c>
-      <c r="BI61">
+      <c r="BW61">
         <v>5000</v>
       </c>
-      <c r="BJ61">
+      <c r="BX61">
         <v>95000</v>
       </c>
     </row>
-    <row r="62" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -33379,31 +34294,49 @@
         <v>47</v>
       </c>
       <c r="AV62">
-        <v>4800</v>
+        <v>16</v>
       </c>
       <c r="AX62">
-        <v>25200</v>
+        <v>84</v>
       </c>
       <c r="AZ62">
         <v>0</v>
       </c>
       <c r="BB62">
+        <v>100</v>
+      </c>
+      <c r="BD62">
+        <v>10</v>
+      </c>
+      <c r="BF62">
+        <v>90</v>
+      </c>
+      <c r="BJ62">
+        <v>4800</v>
+      </c>
+      <c r="BL62">
+        <v>25200</v>
+      </c>
+      <c r="BN62">
+        <v>0</v>
+      </c>
+      <c r="BP62">
         <v>20000</v>
       </c>
-      <c r="BD62">
+      <c r="BR62">
         <v>5000</v>
       </c>
-      <c r="BF62">
+      <c r="BT62">
         <v>45000</v>
       </c>
-      <c r="BI62">
+      <c r="BW62">
         <v>9800</v>
       </c>
-      <c r="BJ62">
+      <c r="BX62">
         <v>90200</v>
       </c>
     </row>
-    <row r="63" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -33531,7 +34464,7 @@
         <v>48</v>
       </c>
       <c r="AU63">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AW63">
         <v>0</v>
@@ -33540,22 +34473,40 @@
         <v>0</v>
       </c>
       <c r="BA63">
+        <v>100</v>
+      </c>
+      <c r="BC63">
+        <v>60</v>
+      </c>
+      <c r="BE63">
+        <v>40</v>
+      </c>
+      <c r="BI63">
+        <v>10000</v>
+      </c>
+      <c r="BK63">
+        <v>0</v>
+      </c>
+      <c r="BM63">
+        <v>0</v>
+      </c>
+      <c r="BO63">
         <v>20000</v>
       </c>
-      <c r="BC63">
+      <c r="BQ63">
         <v>42000</v>
       </c>
-      <c r="BE63">
+      <c r="BS63">
         <v>28000</v>
       </c>
-      <c r="BI63">
+      <c r="BW63">
         <v>52000</v>
       </c>
-      <c r="BJ63">
+      <c r="BX63">
         <v>48000</v>
       </c>
     </row>
-    <row r="64" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -33686,28 +34637,46 @@
         <v>0</v>
       </c>
       <c r="AX64">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AZ64">
         <v>0</v>
       </c>
       <c r="BB64">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BD64">
         <v>0</v>
       </c>
       <c r="BF64">
+        <v>100</v>
+      </c>
+      <c r="BJ64">
+        <v>0</v>
+      </c>
+      <c r="BL64">
+        <v>30000</v>
+      </c>
+      <c r="BN64">
+        <v>0</v>
+      </c>
+      <c r="BP64">
+        <v>20000</v>
+      </c>
+      <c r="BR64">
+        <v>0</v>
+      </c>
+      <c r="BT64">
         <v>50000</v>
       </c>
-      <c r="BI64">
+      <c r="BW64">
         <v>0</v>
       </c>
-      <c r="BJ64">
+      <c r="BX64">
         <v>100000</v>
       </c>
     </row>
-    <row r="65" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -33823,19 +34792,25 @@
         <v>47</v>
       </c>
       <c r="BG65">
+        <v>27</v>
+      </c>
+      <c r="BH65">
+        <v>73</v>
+      </c>
+      <c r="BU65">
         <v>27000</v>
       </c>
-      <c r="BH65">
+      <c r="BV65">
         <v>73000</v>
       </c>
-      <c r="BI65">
+      <c r="BW65">
         <v>27000</v>
       </c>
-      <c r="BJ65">
+      <c r="BX65">
         <v>73000</v>
       </c>
     </row>
-    <row r="66" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -33963,31 +34938,49 @@
         <v>48</v>
       </c>
       <c r="AU66">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AW66">
         <v>0</v>
       </c>
       <c r="AY66">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BA66">
         <v>0</v>
       </c>
       <c r="BC66">
+        <v>56</v>
+      </c>
+      <c r="BE66">
+        <v>44</v>
+      </c>
+      <c r="BI66">
+        <v>10000</v>
+      </c>
+      <c r="BK66">
+        <v>0</v>
+      </c>
+      <c r="BM66">
+        <v>20000</v>
+      </c>
+      <c r="BO66">
+        <v>0</v>
+      </c>
+      <c r="BQ66">
         <v>39200</v>
       </c>
-      <c r="BE66">
+      <c r="BS66">
         <v>30800</v>
       </c>
-      <c r="BI66">
+      <c r="BW66">
         <v>69200</v>
       </c>
-      <c r="BJ66">
+      <c r="BX66">
         <v>30800</v>
       </c>
     </row>
-    <row r="67" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -34106,16 +35099,22 @@
         <v>0</v>
       </c>
       <c r="BH67">
+        <v>100</v>
+      </c>
+      <c r="BU67">
+        <v>0</v>
+      </c>
+      <c r="BV67">
         <v>100000</v>
       </c>
-      <c r="BI67">
+      <c r="BW67">
         <v>0</v>
       </c>
-      <c r="BJ67">
+      <c r="BX67">
         <v>100000</v>
       </c>
     </row>
-    <row r="68" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -34243,31 +35242,49 @@
         <v>48</v>
       </c>
       <c r="AV68">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AX68">
         <v>0</v>
       </c>
       <c r="AZ68">
+        <v>63</v>
+      </c>
+      <c r="BB68">
+        <v>37</v>
+      </c>
+      <c r="BD68">
+        <v>80</v>
+      </c>
+      <c r="BF68">
+        <v>20</v>
+      </c>
+      <c r="BJ68">
+        <v>30000</v>
+      </c>
+      <c r="BL68">
+        <v>0</v>
+      </c>
+      <c r="BN68">
         <v>12600</v>
       </c>
-      <c r="BB68">
+      <c r="BP68">
         <v>7400</v>
       </c>
-      <c r="BD68">
+      <c r="BR68">
         <v>40000</v>
       </c>
-      <c r="BF68">
+      <c r="BT68">
         <v>10000</v>
       </c>
-      <c r="BI68">
+      <c r="BW68">
         <v>82600</v>
       </c>
-      <c r="BJ68">
+      <c r="BX68">
         <v>17400</v>
       </c>
     </row>
-    <row r="69" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -34395,7 +35412,7 @@
         <v>49</v>
       </c>
       <c r="AV69">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AX69">
         <v>0</v>
@@ -34404,22 +35421,40 @@
         <v>0</v>
       </c>
       <c r="BB69">
+        <v>100</v>
+      </c>
+      <c r="BD69">
+        <v>20</v>
+      </c>
+      <c r="BF69">
+        <v>80</v>
+      </c>
+      <c r="BJ69">
+        <v>30000</v>
+      </c>
+      <c r="BL69">
+        <v>0</v>
+      </c>
+      <c r="BN69">
+        <v>0</v>
+      </c>
+      <c r="BP69">
         <v>20000</v>
       </c>
-      <c r="BD69">
+      <c r="BR69">
         <v>10000</v>
       </c>
-      <c r="BF69">
+      <c r="BT69">
         <v>40000</v>
       </c>
-      <c r="BI69">
+      <c r="BW69">
         <v>40000</v>
       </c>
-      <c r="BJ69">
+      <c r="BX69">
         <v>60000</v>
       </c>
     </row>
-    <row r="70" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -34535,19 +35570,25 @@
         <v>47</v>
       </c>
       <c r="BG70">
+        <v>25</v>
+      </c>
+      <c r="BH70">
+        <v>75</v>
+      </c>
+      <c r="BU70">
         <v>25000</v>
       </c>
-      <c r="BH70">
+      <c r="BV70">
         <v>75000</v>
       </c>
-      <c r="BI70">
+      <c r="BW70">
         <v>25000</v>
       </c>
-      <c r="BJ70">
+      <c r="BX70">
         <v>75000</v>
       </c>
     </row>
-    <row r="71" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -34675,31 +35716,49 @@
         <v>47</v>
       </c>
       <c r="AU71">
-        <v>8000</v>
+        <v>80</v>
       </c>
       <c r="AW71">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="AY71">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="BA71">
-        <v>18000</v>
+        <v>90</v>
       </c>
       <c r="BC71">
         <v>0</v>
       </c>
       <c r="BE71">
+        <v>100</v>
+      </c>
+      <c r="BI71">
+        <v>8000</v>
+      </c>
+      <c r="BK71">
+        <v>2000</v>
+      </c>
+      <c r="BM71">
+        <v>2000</v>
+      </c>
+      <c r="BO71">
+        <v>18000</v>
+      </c>
+      <c r="BQ71">
+        <v>0</v>
+      </c>
+      <c r="BS71">
         <v>70000</v>
       </c>
-      <c r="BI71">
+      <c r="BW71">
         <v>10000</v>
       </c>
-      <c r="BJ71">
+      <c r="BX71">
         <v>90000</v>
       </c>
     </row>
-    <row r="72" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -34830,28 +35889,46 @@
         <v>0</v>
       </c>
       <c r="AW72">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AY72">
         <v>0</v>
       </c>
       <c r="BA72">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC72">
         <v>0</v>
       </c>
       <c r="BE72">
-        <v>70000</v>
+        <v>100</v>
       </c>
       <c r="BI72">
         <v>0</v>
       </c>
-      <c r="BJ72">
+      <c r="BK72">
+        <v>10000</v>
+      </c>
+      <c r="BM72">
+        <v>0</v>
+      </c>
+      <c r="BO72">
+        <v>20000</v>
+      </c>
+      <c r="BQ72">
+        <v>0</v>
+      </c>
+      <c r="BS72">
+        <v>70000</v>
+      </c>
+      <c r="BW72">
+        <v>0</v>
+      </c>
+      <c r="BX72">
         <v>100000</v>
       </c>
     </row>
-    <row r="73" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -34967,19 +36044,25 @@
         <v>48</v>
       </c>
       <c r="BG73">
+        <v>31</v>
+      </c>
+      <c r="BH73">
+        <v>69</v>
+      </c>
+      <c r="BU73">
         <v>31000</v>
       </c>
-      <c r="BH73">
+      <c r="BV73">
         <v>69000</v>
       </c>
-      <c r="BI73">
+      <c r="BW73">
         <v>31000</v>
       </c>
-      <c r="BJ73">
+      <c r="BX73">
         <v>69000</v>
       </c>
     </row>
-    <row r="74" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -35107,31 +36190,49 @@
         <v>47</v>
       </c>
       <c r="AV74">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="AX74">
-        <v>27000</v>
+        <v>90</v>
       </c>
       <c r="AZ74">
         <v>0</v>
       </c>
       <c r="BB74">
+        <v>100</v>
+      </c>
+      <c r="BD74">
+        <v>4</v>
+      </c>
+      <c r="BF74">
+        <v>96</v>
+      </c>
+      <c r="BJ74">
+        <v>3000</v>
+      </c>
+      <c r="BL74">
+        <v>27000</v>
+      </c>
+      <c r="BN74">
+        <v>0</v>
+      </c>
+      <c r="BP74">
         <v>20000</v>
       </c>
-      <c r="BD74">
+      <c r="BR74">
         <v>2000</v>
       </c>
-      <c r="BF74">
+      <c r="BT74">
         <v>48000</v>
       </c>
-      <c r="BI74">
+      <c r="BW74">
         <v>5000</v>
       </c>
-      <c r="BJ74">
+      <c r="BX74">
         <v>95000</v>
       </c>
     </row>
-    <row r="75" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -35259,31 +36360,49 @@
         <v>47</v>
       </c>
       <c r="AU75">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AW75">
         <v>0</v>
       </c>
       <c r="AY75">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BA75">
         <v>0</v>
       </c>
       <c r="BC75">
+        <v>15</v>
+      </c>
+      <c r="BE75">
+        <v>85</v>
+      </c>
+      <c r="BI75">
+        <v>10000</v>
+      </c>
+      <c r="BK75">
+        <v>0</v>
+      </c>
+      <c r="BM75">
+        <v>20000</v>
+      </c>
+      <c r="BO75">
+        <v>0</v>
+      </c>
+      <c r="BQ75">
         <v>10500</v>
       </c>
-      <c r="BE75">
+      <c r="BS75">
         <v>59500</v>
       </c>
-      <c r="BI75">
+      <c r="BW75">
         <v>40500</v>
       </c>
-      <c r="BJ75">
+      <c r="BX75">
         <v>59500</v>
       </c>
     </row>
-    <row r="76" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -35411,7 +36530,7 @@
         <v>47</v>
       </c>
       <c r="AV76">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AX76">
         <v>0</v>
@@ -35420,22 +36539,40 @@
         <v>0</v>
       </c>
       <c r="BB76">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BD76">
         <v>0</v>
       </c>
       <c r="BF76">
+        <v>100</v>
+      </c>
+      <c r="BJ76">
+        <v>30000</v>
+      </c>
+      <c r="BL76">
+        <v>0</v>
+      </c>
+      <c r="BN76">
+        <v>0</v>
+      </c>
+      <c r="BP76">
+        <v>20000</v>
+      </c>
+      <c r="BR76">
+        <v>0</v>
+      </c>
+      <c r="BT76">
         <v>50000</v>
       </c>
-      <c r="BI76">
+      <c r="BW76">
         <v>30000</v>
       </c>
-      <c r="BJ76">
+      <c r="BX76">
         <v>70000</v>
       </c>
     </row>
-    <row r="77" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -35551,19 +36688,25 @@
         <v>49</v>
       </c>
       <c r="BG77">
+        <v>65</v>
+      </c>
+      <c r="BH77">
+        <v>35</v>
+      </c>
+      <c r="BU77">
         <v>65000</v>
       </c>
-      <c r="BH77">
+      <c r="BV77">
         <v>35000</v>
       </c>
-      <c r="BI77">
+      <c r="BW77">
         <v>65000</v>
       </c>
-      <c r="BJ77">
+      <c r="BX77">
         <v>35000</v>
       </c>
     </row>
-    <row r="78" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -35682,16 +36825,22 @@
         <v>0</v>
       </c>
       <c r="BH78">
+        <v>100</v>
+      </c>
+      <c r="BU78">
+        <v>0</v>
+      </c>
+      <c r="BV78">
         <v>100000</v>
       </c>
-      <c r="BI78">
+      <c r="BW78">
         <v>0</v>
       </c>
-      <c r="BJ78">
+      <c r="BX78">
         <v>100000</v>
       </c>
     </row>
-    <row r="79" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -35822,28 +36971,46 @@
         <v>0</v>
       </c>
       <c r="AW79">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AY79">
         <v>0</v>
       </c>
       <c r="BA79">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC79">
         <v>0</v>
       </c>
       <c r="BE79">
-        <v>70000</v>
+        <v>100</v>
       </c>
       <c r="BI79">
         <v>0</v>
       </c>
-      <c r="BJ79">
+      <c r="BK79">
+        <v>10000</v>
+      </c>
+      <c r="BM79">
+        <v>0</v>
+      </c>
+      <c r="BO79">
+        <v>20000</v>
+      </c>
+      <c r="BQ79">
+        <v>0</v>
+      </c>
+      <c r="BS79">
+        <v>70000</v>
+      </c>
+      <c r="BW79">
+        <v>0</v>
+      </c>
+      <c r="BX79">
         <v>100000</v>
       </c>
     </row>
-    <row r="80" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -35971,31 +37138,49 @@
         <v>47</v>
       </c>
       <c r="AU80">
+        <v>66</v>
+      </c>
+      <c r="AW80">
+        <v>34</v>
+      </c>
+      <c r="AY80">
+        <v>52</v>
+      </c>
+      <c r="BA80">
+        <v>48</v>
+      </c>
+      <c r="BC80">
+        <v>29</v>
+      </c>
+      <c r="BE80">
+        <v>71</v>
+      </c>
+      <c r="BI80">
         <v>6600</v>
       </c>
-      <c r="AW80">
+      <c r="BK80">
         <v>3400</v>
       </c>
-      <c r="AY80">
+      <c r="BM80">
         <v>10400</v>
       </c>
-      <c r="BA80">
+      <c r="BO80">
         <v>9600</v>
       </c>
-      <c r="BC80">
+      <c r="BQ80">
         <v>20300</v>
       </c>
-      <c r="BE80">
+      <c r="BS80">
         <v>49700</v>
       </c>
-      <c r="BI80">
+      <c r="BW80">
         <v>37300</v>
       </c>
-      <c r="BJ80">
+      <c r="BX80">
         <v>62700</v>
       </c>
     </row>
-    <row r="81" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -36126,28 +37311,46 @@
         <v>0</v>
       </c>
       <c r="AX81">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AZ81">
         <v>0</v>
       </c>
       <c r="BB81">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BD81">
         <v>0</v>
       </c>
       <c r="BF81">
+        <v>100</v>
+      </c>
+      <c r="BJ81">
+        <v>0</v>
+      </c>
+      <c r="BL81">
+        <v>30000</v>
+      </c>
+      <c r="BN81">
+        <v>0</v>
+      </c>
+      <c r="BP81">
+        <v>20000</v>
+      </c>
+      <c r="BR81">
+        <v>0</v>
+      </c>
+      <c r="BT81">
         <v>50000</v>
       </c>
-      <c r="BI81">
+      <c r="BW81">
         <v>0</v>
       </c>
-      <c r="BJ81">
+      <c r="BX81">
         <v>100000</v>
       </c>
     </row>
-    <row r="82" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -36278,28 +37481,46 @@
         <v>0</v>
       </c>
       <c r="AX82">
+        <v>100</v>
+      </c>
+      <c r="AZ82">
+        <v>26</v>
+      </c>
+      <c r="BB82">
+        <v>74</v>
+      </c>
+      <c r="BD82">
+        <v>20</v>
+      </c>
+      <c r="BF82">
+        <v>80</v>
+      </c>
+      <c r="BJ82">
+        <v>0</v>
+      </c>
+      <c r="BL82">
         <v>30000</v>
       </c>
-      <c r="AZ82">
+      <c r="BN82">
         <v>5200</v>
       </c>
-      <c r="BB82">
+      <c r="BP82">
         <v>14800</v>
       </c>
-      <c r="BD82">
+      <c r="BR82">
         <v>10000</v>
       </c>
-      <c r="BF82">
+      <c r="BT82">
         <v>40000</v>
       </c>
-      <c r="BI82">
+      <c r="BW82">
         <v>15200</v>
       </c>
-      <c r="BJ82">
+      <c r="BX82">
         <v>84800</v>
       </c>
     </row>
-    <row r="83" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -36415,19 +37636,25 @@
         <v>47</v>
       </c>
       <c r="BG83">
+        <v>10</v>
+      </c>
+      <c r="BH83">
+        <v>90</v>
+      </c>
+      <c r="BU83">
         <v>10000</v>
       </c>
-      <c r="BH83">
+      <c r="BV83">
         <v>90000</v>
       </c>
-      <c r="BI83">
+      <c r="BW83">
         <v>10000</v>
       </c>
-      <c r="BJ83">
+      <c r="BX83">
         <v>90000</v>
       </c>
     </row>
-    <row r="84" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -36552,31 +37779,49 @@
         <v>47</v>
       </c>
       <c r="AU84">
+        <v>11</v>
+      </c>
+      <c r="AW84">
+        <v>89</v>
+      </c>
+      <c r="AY84">
+        <v>8</v>
+      </c>
+      <c r="BA84">
+        <v>92</v>
+      </c>
+      <c r="BC84">
+        <v>7</v>
+      </c>
+      <c r="BE84">
+        <v>93</v>
+      </c>
+      <c r="BI84">
         <v>1100</v>
       </c>
-      <c r="AW84">
+      <c r="BK84">
         <v>8900</v>
       </c>
-      <c r="AY84">
+      <c r="BM84">
         <v>1600</v>
       </c>
-      <c r="BA84">
+      <c r="BO84">
         <v>18400</v>
       </c>
-      <c r="BC84">
+      <c r="BQ84">
         <v>4900</v>
       </c>
-      <c r="BE84">
+      <c r="BS84">
         <v>65100</v>
       </c>
-      <c r="BI84">
+      <c r="BW84">
         <v>7600</v>
       </c>
-      <c r="BJ84">
+      <c r="BX84">
         <v>92400</v>
       </c>
     </row>
-    <row r="85" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -36704,31 +37949,49 @@
         <v>47</v>
       </c>
       <c r="AU85">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="AW85">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="AY85">
         <v>0</v>
       </c>
       <c r="BA85">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC85">
         <v>0</v>
       </c>
       <c r="BE85">
-        <v>70000</v>
+        <v>100</v>
       </c>
       <c r="BI85">
         <v>5000</v>
       </c>
-      <c r="BJ85">
+      <c r="BK85">
+        <v>5000</v>
+      </c>
+      <c r="BM85">
+        <v>0</v>
+      </c>
+      <c r="BO85">
+        <v>20000</v>
+      </c>
+      <c r="BQ85">
+        <v>0</v>
+      </c>
+      <c r="BS85">
+        <v>70000</v>
+      </c>
+      <c r="BW85">
+        <v>5000</v>
+      </c>
+      <c r="BX85">
         <v>95000</v>
       </c>
     </row>
-    <row r="86" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -36847,31 +38110,49 @@
         <v>51</v>
       </c>
       <c r="AV86">
+        <v>63</v>
+      </c>
+      <c r="AX86">
+        <v>37</v>
+      </c>
+      <c r="AZ86">
+        <v>53</v>
+      </c>
+      <c r="BB86">
+        <v>47</v>
+      </c>
+      <c r="BD86">
+        <v>8</v>
+      </c>
+      <c r="BF86">
+        <v>92</v>
+      </c>
+      <c r="BJ86">
         <v>18900</v>
       </c>
-      <c r="AX86">
+      <c r="BL86">
         <v>11100</v>
       </c>
-      <c r="AZ86">
+      <c r="BN86">
         <v>10600</v>
       </c>
-      <c r="BB86">
+      <c r="BP86">
         <v>9400</v>
       </c>
-      <c r="BD86">
+      <c r="BR86">
         <v>4000</v>
       </c>
-      <c r="BF86">
+      <c r="BT86">
         <v>46000</v>
       </c>
-      <c r="BI86">
+      <c r="BW86">
         <v>33500</v>
       </c>
-      <c r="BJ86">
+      <c r="BX86">
         <v>66500</v>
       </c>
     </row>
-    <row r="87" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -36987,19 +38268,25 @@
         <v>51</v>
       </c>
       <c r="BG87">
+        <v>20</v>
+      </c>
+      <c r="BH87">
+        <v>80</v>
+      </c>
+      <c r="BU87">
         <v>20000</v>
       </c>
-      <c r="BH87">
+      <c r="BV87">
         <v>80000</v>
       </c>
-      <c r="BI87">
+      <c r="BW87">
         <v>20000</v>
       </c>
-      <c r="BJ87">
+      <c r="BX87">
         <v>80000</v>
       </c>
     </row>
-    <row r="88" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -37115,19 +38402,25 @@
         <v>47</v>
       </c>
       <c r="BG88">
+        <v>10</v>
+      </c>
+      <c r="BH88">
+        <v>90</v>
+      </c>
+      <c r="BU88">
         <v>10000</v>
       </c>
-      <c r="BH88">
+      <c r="BV88">
         <v>90000</v>
       </c>
-      <c r="BI88">
+      <c r="BW88">
         <v>10000</v>
       </c>
-      <c r="BJ88">
+      <c r="BX88">
         <v>90000</v>
       </c>
     </row>
-    <row r="89" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -37255,31 +38548,49 @@
         <v>47</v>
       </c>
       <c r="AV89">
+        <v>70</v>
+      </c>
+      <c r="AX89">
+        <v>30</v>
+      </c>
+      <c r="AZ89">
+        <v>19</v>
+      </c>
+      <c r="BB89">
+        <v>81</v>
+      </c>
+      <c r="BD89">
+        <v>57</v>
+      </c>
+      <c r="BF89">
+        <v>43</v>
+      </c>
+      <c r="BJ89">
         <v>21000</v>
       </c>
-      <c r="AX89">
+      <c r="BL89">
         <v>9000</v>
       </c>
-      <c r="AZ89">
+      <c r="BN89">
         <v>3800</v>
       </c>
-      <c r="BB89">
+      <c r="BP89">
         <v>16200</v>
       </c>
-      <c r="BD89">
+      <c r="BR89">
         <v>28500</v>
       </c>
-      <c r="BF89">
+      <c r="BT89">
         <v>21500</v>
       </c>
-      <c r="BI89">
+      <c r="BW89">
         <v>53300</v>
       </c>
-      <c r="BJ89">
+      <c r="BX89">
         <v>46700</v>
       </c>
     </row>
-    <row r="90" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -37404,31 +38715,49 @@
         <v>51</v>
       </c>
       <c r="AU90">
+        <v>30</v>
+      </c>
+      <c r="AW90">
+        <v>70</v>
+      </c>
+      <c r="AY90">
+        <v>5</v>
+      </c>
+      <c r="BA90">
+        <v>95</v>
+      </c>
+      <c r="BC90">
+        <v>7</v>
+      </c>
+      <c r="BE90">
+        <v>93</v>
+      </c>
+      <c r="BI90">
         <v>3000</v>
       </c>
-      <c r="AW90">
+      <c r="BK90">
         <v>7000</v>
       </c>
-      <c r="AY90">
+      <c r="BM90">
         <v>1000</v>
       </c>
-      <c r="BA90">
+      <c r="BO90">
         <v>19000</v>
       </c>
-      <c r="BC90">
+      <c r="BQ90">
         <v>4900</v>
       </c>
-      <c r="BE90">
+      <c r="BS90">
         <v>65100</v>
       </c>
-      <c r="BI90">
+      <c r="BW90">
         <v>8900</v>
       </c>
-      <c r="BJ90">
+      <c r="BX90">
         <v>91100</v>
       </c>
     </row>
-    <row r="91" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -37544,19 +38873,25 @@
         <v>47</v>
       </c>
       <c r="BG91">
+        <v>20</v>
+      </c>
+      <c r="BH91">
+        <v>80</v>
+      </c>
+      <c r="BU91">
         <v>20000</v>
       </c>
-      <c r="BH91">
+      <c r="BV91">
         <v>80000</v>
       </c>
-      <c r="BI91">
+      <c r="BW91">
         <v>20000</v>
       </c>
-      <c r="BJ91">
+      <c r="BX91">
         <v>80000</v>
       </c>
     </row>
-    <row r="92" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -37684,31 +39019,49 @@
         <v>47</v>
       </c>
       <c r="AV92">
+        <v>20</v>
+      </c>
+      <c r="AX92">
+        <v>80</v>
+      </c>
+      <c r="AZ92">
+        <v>20</v>
+      </c>
+      <c r="BB92">
+        <v>80</v>
+      </c>
+      <c r="BD92">
+        <v>20</v>
+      </c>
+      <c r="BF92">
+        <v>80</v>
+      </c>
+      <c r="BJ92">
         <v>6000</v>
       </c>
-      <c r="AX92">
+      <c r="BL92">
         <v>24000</v>
       </c>
-      <c r="AZ92">
+      <c r="BN92">
         <v>4000</v>
       </c>
-      <c r="BB92">
+      <c r="BP92">
         <v>16000</v>
       </c>
-      <c r="BD92">
+      <c r="BR92">
         <v>10000</v>
       </c>
-      <c r="BF92">
+      <c r="BT92">
         <v>40000</v>
       </c>
-      <c r="BI92">
+      <c r="BW92">
         <v>20000</v>
       </c>
-      <c r="BJ92">
+      <c r="BX92">
         <v>80000</v>
       </c>
     </row>
-    <row r="93" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -37836,31 +39189,49 @@
         <v>47</v>
       </c>
       <c r="AV93">
+        <v>89</v>
+      </c>
+      <c r="AX93">
+        <v>11</v>
+      </c>
+      <c r="AZ93">
+        <v>74</v>
+      </c>
+      <c r="BB93">
+        <v>26</v>
+      </c>
+      <c r="BD93">
+        <v>21</v>
+      </c>
+      <c r="BF93">
+        <v>79</v>
+      </c>
+      <c r="BJ93">
         <v>26700</v>
       </c>
-      <c r="AX93">
+      <c r="BL93">
         <v>3300</v>
       </c>
-      <c r="AZ93">
+      <c r="BN93">
         <v>14800</v>
       </c>
-      <c r="BB93">
+      <c r="BP93">
         <v>5200</v>
       </c>
-      <c r="BD93">
+      <c r="BR93">
         <v>10500</v>
       </c>
-      <c r="BF93">
+      <c r="BT93">
         <v>39500</v>
       </c>
-      <c r="BI93">
+      <c r="BW93">
         <v>52000</v>
       </c>
-      <c r="BJ93">
+      <c r="BX93">
         <v>48000</v>
       </c>
     </row>
-    <row r="94" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -37979,19 +39350,25 @@
         <v>47</v>
       </c>
       <c r="BG94">
+        <v>33</v>
+      </c>
+      <c r="BH94">
+        <v>67</v>
+      </c>
+      <c r="BU94">
         <v>33000</v>
       </c>
-      <c r="BH94">
+      <c r="BV94">
         <v>67000</v>
       </c>
-      <c r="BI94">
+      <c r="BW94">
         <v>33000</v>
       </c>
-      <c r="BJ94">
+      <c r="BX94">
         <v>67000</v>
       </c>
     </row>
-    <row r="95" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -38119,31 +39496,49 @@
         <v>47</v>
       </c>
       <c r="AU95">
+        <v>51</v>
+      </c>
+      <c r="AW95">
+        <v>49</v>
+      </c>
+      <c r="AY95">
+        <v>25</v>
+      </c>
+      <c r="BA95">
+        <v>75</v>
+      </c>
+      <c r="BC95">
+        <v>30</v>
+      </c>
+      <c r="BE95">
+        <v>70</v>
+      </c>
+      <c r="BI95">
         <v>5100</v>
       </c>
-      <c r="AW95">
+      <c r="BK95">
         <v>4900</v>
       </c>
-      <c r="AY95">
+      <c r="BM95">
         <v>5000</v>
       </c>
-      <c r="BA95">
+      <c r="BO95">
         <v>15000</v>
       </c>
-      <c r="BC95">
+      <c r="BQ95">
         <v>21000</v>
       </c>
-      <c r="BE95">
+      <c r="BS95">
         <v>49000</v>
       </c>
-      <c r="BI95">
+      <c r="BW95">
         <v>31100</v>
       </c>
-      <c r="BJ95">
+      <c r="BX95">
         <v>68900</v>
       </c>
     </row>
-    <row r="96" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -38271,31 +39666,49 @@
         <v>51</v>
       </c>
       <c r="AV96">
-        <v>10200</v>
+        <v>34</v>
       </c>
       <c r="AX96">
-        <v>19800</v>
+        <v>66</v>
       </c>
       <c r="AZ96">
         <v>0</v>
       </c>
       <c r="BB96">
+        <v>100</v>
+      </c>
+      <c r="BD96">
+        <v>21</v>
+      </c>
+      <c r="BF96">
+        <v>79</v>
+      </c>
+      <c r="BJ96">
+        <v>10200</v>
+      </c>
+      <c r="BL96">
+        <v>19800</v>
+      </c>
+      <c r="BN96">
+        <v>0</v>
+      </c>
+      <c r="BP96">
         <v>20000</v>
       </c>
-      <c r="BD96">
+      <c r="BR96">
         <v>10500</v>
       </c>
-      <c r="BF96">
+      <c r="BT96">
         <v>39500</v>
       </c>
-      <c r="BI96">
+      <c r="BW96">
         <v>20700</v>
       </c>
-      <c r="BJ96">
+      <c r="BX96">
         <v>79300</v>
       </c>
     </row>
-    <row r="97" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -38411,19 +39824,25 @@
         <v>47</v>
       </c>
       <c r="BG97">
+        <v>28</v>
+      </c>
+      <c r="BH97">
+        <v>72</v>
+      </c>
+      <c r="BU97">
         <v>28000</v>
       </c>
-      <c r="BH97">
+      <c r="BV97">
         <v>72000</v>
       </c>
-      <c r="BI97">
+      <c r="BW97">
         <v>28000</v>
       </c>
-      <c r="BJ97">
+      <c r="BX97">
         <v>72000</v>
       </c>
     </row>
-    <row r="98" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -38551,31 +39970,49 @@
         <v>49</v>
       </c>
       <c r="AV98">
-        <v>20100</v>
+        <v>67</v>
       </c>
       <c r="AX98">
-        <v>9900</v>
+        <v>33</v>
       </c>
       <c r="AZ98">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="BB98">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="BD98">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="BF98">
         <v>0</v>
       </c>
-      <c r="BI98">
+      <c r="BJ98">
+        <v>20100</v>
+      </c>
+      <c r="BL98">
+        <v>9900</v>
+      </c>
+      <c r="BN98">
+        <v>10000</v>
+      </c>
+      <c r="BP98">
+        <v>10000</v>
+      </c>
+      <c r="BR98">
+        <v>50000</v>
+      </c>
+      <c r="BT98">
+        <v>0</v>
+      </c>
+      <c r="BW98">
         <v>80100</v>
       </c>
-      <c r="BJ98">
+      <c r="BX98">
         <v>19900</v>
       </c>
     </row>
-    <row r="99" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -38703,31 +40140,49 @@
         <v>47</v>
       </c>
       <c r="AU99">
-        <v>5200</v>
+        <v>52</v>
       </c>
       <c r="AW99">
-        <v>4800</v>
+        <v>48</v>
       </c>
       <c r="AY99">
-        <v>8400</v>
+        <v>42</v>
       </c>
       <c r="BA99">
-        <v>11600</v>
+        <v>58</v>
       </c>
       <c r="BC99">
-        <v>70000</v>
+        <v>100</v>
       </c>
       <c r="BE99">
         <v>0</v>
       </c>
       <c r="BI99">
+        <v>5200</v>
+      </c>
+      <c r="BK99">
+        <v>4800</v>
+      </c>
+      <c r="BM99">
+        <v>8400</v>
+      </c>
+      <c r="BO99">
+        <v>11600</v>
+      </c>
+      <c r="BQ99">
+        <v>70000</v>
+      </c>
+      <c r="BS99">
+        <v>0</v>
+      </c>
+      <c r="BW99">
         <v>83600</v>
       </c>
-      <c r="BJ99">
+      <c r="BX99">
         <v>16400</v>
       </c>
     </row>
-    <row r="100" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -38855,31 +40310,49 @@
         <v>47</v>
       </c>
       <c r="AV100">
-        <v>15000</v>
+        <v>50</v>
       </c>
       <c r="AX100">
-        <v>15000</v>
+        <v>50</v>
       </c>
       <c r="AZ100">
         <v>0</v>
       </c>
       <c r="BB100">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BD100">
         <v>0</v>
       </c>
       <c r="BF100">
+        <v>100</v>
+      </c>
+      <c r="BJ100">
+        <v>15000</v>
+      </c>
+      <c r="BL100">
+        <v>15000</v>
+      </c>
+      <c r="BN100">
+        <v>0</v>
+      </c>
+      <c r="BP100">
+        <v>20000</v>
+      </c>
+      <c r="BR100">
+        <v>0</v>
+      </c>
+      <c r="BT100">
         <v>50000</v>
       </c>
-      <c r="BI100">
+      <c r="BW100">
         <v>15000</v>
       </c>
-      <c r="BJ100">
+      <c r="BX100">
         <v>85000</v>
       </c>
     </row>
-    <row r="101" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -39004,28 +40477,46 @@
         <v>0</v>
       </c>
       <c r="AW101">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AY101">
         <v>0</v>
       </c>
       <c r="BA101">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC101">
         <v>0</v>
       </c>
       <c r="BE101">
-        <v>70000</v>
+        <v>100</v>
       </c>
       <c r="BI101">
         <v>0</v>
       </c>
-      <c r="BJ101">
+      <c r="BK101">
+        <v>10000</v>
+      </c>
+      <c r="BM101">
+        <v>0</v>
+      </c>
+      <c r="BO101">
+        <v>20000</v>
+      </c>
+      <c r="BQ101">
+        <v>0</v>
+      </c>
+      <c r="BS101">
+        <v>70000</v>
+      </c>
+      <c r="BW101">
+        <v>0</v>
+      </c>
+      <c r="BX101">
         <v>100000</v>
       </c>
     </row>
-    <row r="102" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -39141,19 +40632,25 @@
         <v>48</v>
       </c>
       <c r="BG102">
+        <v>34</v>
+      </c>
+      <c r="BH102">
+        <v>66</v>
+      </c>
+      <c r="BU102">
         <v>34000</v>
       </c>
-      <c r="BH102">
+      <c r="BV102">
         <v>66000</v>
       </c>
-      <c r="BI102">
+      <c r="BW102">
         <v>34000</v>
       </c>
-      <c r="BJ102">
+      <c r="BX102">
         <v>66000</v>
       </c>
     </row>
-    <row r="103" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -39269,19 +40766,25 @@
         <v>51</v>
       </c>
       <c r="BG103">
+        <v>30</v>
+      </c>
+      <c r="BH103">
+        <v>70</v>
+      </c>
+      <c r="BU103">
         <v>30000</v>
       </c>
-      <c r="BH103">
+      <c r="BV103">
         <v>70000</v>
       </c>
-      <c r="BI103">
+      <c r="BW103">
         <v>30000</v>
       </c>
-      <c r="BJ103">
+      <c r="BX103">
         <v>70000</v>
       </c>
     </row>
-    <row r="104" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -39409,31 +40912,49 @@
         <v>47</v>
       </c>
       <c r="AV104">
-        <v>22500</v>
+        <v>75</v>
       </c>
       <c r="AX104">
-        <v>7500</v>
+        <v>25</v>
       </c>
       <c r="AZ104">
-        <v>11600</v>
+        <v>58</v>
       </c>
       <c r="BB104">
-        <v>8400</v>
+        <v>42</v>
       </c>
       <c r="BD104">
         <v>0</v>
       </c>
       <c r="BF104">
+        <v>100</v>
+      </c>
+      <c r="BJ104">
+        <v>22500</v>
+      </c>
+      <c r="BL104">
+        <v>7500</v>
+      </c>
+      <c r="BN104">
+        <v>11600</v>
+      </c>
+      <c r="BP104">
+        <v>8400</v>
+      </c>
+      <c r="BR104">
+        <v>0</v>
+      </c>
+      <c r="BT104">
         <v>50000</v>
       </c>
-      <c r="BI104">
+      <c r="BW104">
         <v>34100</v>
       </c>
-      <c r="BJ104">
+      <c r="BX104">
         <v>65900</v>
       </c>
     </row>
-    <row r="105" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -39561,31 +41082,49 @@
         <v>49</v>
       </c>
       <c r="AU105">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AW105">
         <v>0</v>
       </c>
       <c r="AY105">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BA105">
         <v>0</v>
       </c>
       <c r="BC105">
-        <v>70000</v>
+        <v>100</v>
       </c>
       <c r="BE105">
         <v>0</v>
       </c>
       <c r="BI105">
+        <v>10000</v>
+      </c>
+      <c r="BK105">
+        <v>0</v>
+      </c>
+      <c r="BM105">
+        <v>20000</v>
+      </c>
+      <c r="BO105">
+        <v>0</v>
+      </c>
+      <c r="BQ105">
+        <v>70000</v>
+      </c>
+      <c r="BS105">
+        <v>0</v>
+      </c>
+      <c r="BW105">
         <v>100000</v>
       </c>
-      <c r="BJ105">
+      <c r="BX105">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -39713,7 +41252,7 @@
         <v>49</v>
       </c>
       <c r="AV106">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AX106">
         <v>0</v>
@@ -39722,22 +41261,40 @@
         <v>0</v>
       </c>
       <c r="BB106">
+        <v>100</v>
+      </c>
+      <c r="BD106">
+        <v>20</v>
+      </c>
+      <c r="BF106">
+        <v>80</v>
+      </c>
+      <c r="BJ106">
+        <v>30000</v>
+      </c>
+      <c r="BL106">
+        <v>0</v>
+      </c>
+      <c r="BN106">
+        <v>0</v>
+      </c>
+      <c r="BP106">
         <v>20000</v>
       </c>
-      <c r="BD106">
+      <c r="BR106">
         <v>10000</v>
       </c>
-      <c r="BF106">
+      <c r="BT106">
         <v>40000</v>
       </c>
-      <c r="BI106">
+      <c r="BW106">
         <v>40000</v>
       </c>
-      <c r="BJ106">
+      <c r="BX106">
         <v>60000</v>
       </c>
     </row>
-    <row r="107" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -39856,16 +41413,22 @@
         <v>0</v>
       </c>
       <c r="BH107">
+        <v>100</v>
+      </c>
+      <c r="BU107">
+        <v>0</v>
+      </c>
+      <c r="BV107">
         <v>100000</v>
       </c>
-      <c r="BI107">
+      <c r="BW107">
         <v>0</v>
       </c>
-      <c r="BJ107">
+      <c r="BX107">
         <v>100000</v>
       </c>
     </row>
-    <row r="108" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -39993,31 +41556,49 @@
         <v>51</v>
       </c>
       <c r="AU108">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="AW108">
-        <v>8500</v>
+        <v>85</v>
       </c>
       <c r="AY108">
         <v>0</v>
       </c>
       <c r="BA108">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC108">
         <v>0</v>
       </c>
       <c r="BE108">
-        <v>70000</v>
+        <v>100</v>
       </c>
       <c r="BI108">
         <v>1500</v>
       </c>
-      <c r="BJ108">
+      <c r="BK108">
+        <v>8500</v>
+      </c>
+      <c r="BM108">
+        <v>0</v>
+      </c>
+      <c r="BO108">
+        <v>20000</v>
+      </c>
+      <c r="BQ108">
+        <v>0</v>
+      </c>
+      <c r="BS108">
+        <v>70000</v>
+      </c>
+      <c r="BW108">
+        <v>1500</v>
+      </c>
+      <c r="BX108">
         <v>98500</v>
       </c>
     </row>
-    <row r="109" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -40145,31 +41726,49 @@
         <v>49</v>
       </c>
       <c r="AU109">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AW109">
         <v>0</v>
       </c>
       <c r="AY109">
+        <v>20</v>
+      </c>
+      <c r="BA109">
+        <v>80</v>
+      </c>
+      <c r="BC109">
+        <v>49</v>
+      </c>
+      <c r="BE109">
+        <v>51</v>
+      </c>
+      <c r="BI109">
+        <v>10000</v>
+      </c>
+      <c r="BK109">
+        <v>0</v>
+      </c>
+      <c r="BM109">
         <v>4000</v>
       </c>
-      <c r="BA109">
+      <c r="BO109">
         <v>16000</v>
       </c>
-      <c r="BC109">
+      <c r="BQ109">
         <v>34300</v>
       </c>
-      <c r="BE109">
+      <c r="BS109">
         <v>35700</v>
       </c>
-      <c r="BI109">
+      <c r="BW109">
         <v>48300</v>
       </c>
-      <c r="BJ109">
+      <c r="BX109">
         <v>51700</v>
       </c>
     </row>
-    <row r="110" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -40297,31 +41896,49 @@
         <v>49</v>
       </c>
       <c r="AV110">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AX110">
         <v>0</v>
       </c>
       <c r="AZ110">
+        <v>50</v>
+      </c>
+      <c r="BB110">
+        <v>50</v>
+      </c>
+      <c r="BD110">
+        <v>20</v>
+      </c>
+      <c r="BF110">
+        <v>80</v>
+      </c>
+      <c r="BJ110">
+        <v>30000</v>
+      </c>
+      <c r="BL110">
+        <v>0</v>
+      </c>
+      <c r="BN110">
         <v>10000</v>
       </c>
-      <c r="BB110">
+      <c r="BP110">
         <v>10000</v>
       </c>
-      <c r="BD110">
+      <c r="BR110">
         <v>10000</v>
       </c>
-      <c r="BF110">
+      <c r="BT110">
         <v>40000</v>
       </c>
-      <c r="BI110">
+      <c r="BW110">
         <v>50000</v>
       </c>
-      <c r="BJ110">
+      <c r="BX110">
         <v>50000</v>
       </c>
     </row>
-    <row r="111" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -40440,16 +42057,22 @@
         <v>0</v>
       </c>
       <c r="BH111">
+        <v>100</v>
+      </c>
+      <c r="BU111">
+        <v>0</v>
+      </c>
+      <c r="BV111">
         <v>100000</v>
       </c>
-      <c r="BI111">
+      <c r="BW111">
         <v>0</v>
       </c>
-      <c r="BJ111">
+      <c r="BX111">
         <v>100000</v>
       </c>
     </row>
-    <row r="112" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -40565,19 +42188,25 @@
         <v>51</v>
       </c>
       <c r="BG112">
+        <v>20</v>
+      </c>
+      <c r="BH112">
+        <v>80</v>
+      </c>
+      <c r="BU112">
         <v>20000</v>
       </c>
-      <c r="BH112">
+      <c r="BV112">
         <v>80000</v>
       </c>
-      <c r="BI112">
+      <c r="BW112">
         <v>20000</v>
       </c>
-      <c r="BJ112">
+      <c r="BX112">
         <v>80000</v>
       </c>
     </row>
-    <row r="113" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -40708,28 +42337,46 @@
         <v>0</v>
       </c>
       <c r="AX113">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AZ113">
         <v>0</v>
       </c>
       <c r="BB113">
+        <v>100</v>
+      </c>
+      <c r="BD113">
+        <v>1</v>
+      </c>
+      <c r="BF113">
+        <v>99</v>
+      </c>
+      <c r="BJ113">
+        <v>0</v>
+      </c>
+      <c r="BL113">
+        <v>30000</v>
+      </c>
+      <c r="BN113">
+        <v>0</v>
+      </c>
+      <c r="BP113">
         <v>20000</v>
       </c>
-      <c r="BD113">
+      <c r="BR113">
         <v>500</v>
       </c>
-      <c r="BF113">
+      <c r="BT113">
         <v>49500</v>
       </c>
-      <c r="BI113">
+      <c r="BW113">
         <v>500</v>
       </c>
-      <c r="BJ113">
+      <c r="BX113">
         <v>99500</v>
       </c>
     </row>
-    <row r="114" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -40851,31 +42498,49 @@
         <v>47</v>
       </c>
       <c r="AU114">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AW114">
         <v>0</v>
       </c>
       <c r="AY114">
+        <v>25</v>
+      </c>
+      <c r="BA114">
+        <v>75</v>
+      </c>
+      <c r="BC114">
+        <v>20</v>
+      </c>
+      <c r="BE114">
+        <v>80</v>
+      </c>
+      <c r="BI114">
+        <v>10000</v>
+      </c>
+      <c r="BK114">
+        <v>0</v>
+      </c>
+      <c r="BM114">
         <v>5000</v>
       </c>
-      <c r="BA114">
+      <c r="BO114">
         <v>15000</v>
       </c>
-      <c r="BC114">
+      <c r="BQ114">
         <v>14000</v>
       </c>
-      <c r="BE114">
+      <c r="BS114">
         <v>56000</v>
       </c>
-      <c r="BI114">
+      <c r="BW114">
         <v>29000</v>
       </c>
-      <c r="BJ114">
+      <c r="BX114">
         <v>71000</v>
       </c>
     </row>
-    <row r="115" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -41003,31 +42668,49 @@
         <v>48</v>
       </c>
       <c r="AV115">
+        <v>22</v>
+      </c>
+      <c r="AX115">
+        <v>78</v>
+      </c>
+      <c r="AZ115">
+        <v>15</v>
+      </c>
+      <c r="BB115">
+        <v>85</v>
+      </c>
+      <c r="BD115">
+        <v>22</v>
+      </c>
+      <c r="BF115">
+        <v>78</v>
+      </c>
+      <c r="BJ115">
         <v>6600</v>
       </c>
-      <c r="AX115">
+      <c r="BL115">
         <v>23400</v>
       </c>
-      <c r="AZ115">
+      <c r="BN115">
         <v>3000</v>
       </c>
-      <c r="BB115">
+      <c r="BP115">
         <v>17000</v>
       </c>
-      <c r="BD115">
+      <c r="BR115">
         <v>11000</v>
       </c>
-      <c r="BF115">
+      <c r="BT115">
         <v>39000</v>
       </c>
-      <c r="BI115">
+      <c r="BW115">
         <v>20600</v>
       </c>
-      <c r="BJ115">
+      <c r="BX115">
         <v>79400</v>
       </c>
     </row>
-    <row r="116" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -41143,19 +42826,25 @@
         <v>51</v>
       </c>
       <c r="BG116">
+        <v>20</v>
+      </c>
+      <c r="BH116">
+        <v>80</v>
+      </c>
+      <c r="BU116">
         <v>20000</v>
       </c>
-      <c r="BH116">
+      <c r="BV116">
         <v>80000</v>
       </c>
-      <c r="BI116">
+      <c r="BW116">
         <v>20000</v>
       </c>
-      <c r="BJ116">
+      <c r="BX116">
         <v>80000</v>
       </c>
     </row>
-    <row r="117" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -41283,7 +42972,7 @@
         <v>49</v>
       </c>
       <c r="AU117">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AW117">
         <v>0</v>
@@ -41292,22 +42981,40 @@
         <v>0</v>
       </c>
       <c r="BA117">
+        <v>100</v>
+      </c>
+      <c r="BC117">
+        <v>29</v>
+      </c>
+      <c r="BE117">
+        <v>71</v>
+      </c>
+      <c r="BI117">
+        <v>10000</v>
+      </c>
+      <c r="BK117">
+        <v>0</v>
+      </c>
+      <c r="BM117">
+        <v>0</v>
+      </c>
+      <c r="BO117">
         <v>20000</v>
       </c>
-      <c r="BC117">
+      <c r="BQ117">
         <v>20300</v>
       </c>
-      <c r="BE117">
+      <c r="BS117">
         <v>49700</v>
       </c>
-      <c r="BI117">
+      <c r="BW117">
         <v>30300</v>
       </c>
-      <c r="BJ117">
+      <c r="BX117">
         <v>69700</v>
       </c>
     </row>
-    <row r="118" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -41423,19 +43130,25 @@
         <v>47</v>
       </c>
       <c r="BG118">
+        <v>20</v>
+      </c>
+      <c r="BH118">
+        <v>80</v>
+      </c>
+      <c r="BU118">
         <v>20000</v>
       </c>
-      <c r="BH118">
+      <c r="BV118">
         <v>80000</v>
       </c>
-      <c r="BI118">
+      <c r="BW118">
         <v>20000</v>
       </c>
-      <c r="BJ118">
+      <c r="BX118">
         <v>80000</v>
       </c>
     </row>
-    <row r="119" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -41563,31 +43276,49 @@
         <v>47</v>
       </c>
       <c r="AV119">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AX119">
         <v>0</v>
       </c>
       <c r="AZ119">
-        <v>5000</v>
+        <v>25</v>
       </c>
       <c r="BB119">
-        <v>15000</v>
+        <v>75</v>
       </c>
       <c r="BD119">
         <v>0</v>
       </c>
       <c r="BF119">
+        <v>100</v>
+      </c>
+      <c r="BJ119">
+        <v>30000</v>
+      </c>
+      <c r="BL119">
+        <v>0</v>
+      </c>
+      <c r="BN119">
+        <v>5000</v>
+      </c>
+      <c r="BP119">
+        <v>15000</v>
+      </c>
+      <c r="BR119">
+        <v>0</v>
+      </c>
+      <c r="BT119">
         <v>50000</v>
       </c>
-      <c r="BI119">
+      <c r="BW119">
         <v>35000</v>
       </c>
-      <c r="BJ119">
+      <c r="BX119">
         <v>65000</v>
       </c>
     </row>
-    <row r="120" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -41703,19 +43434,25 @@
         <v>51</v>
       </c>
       <c r="BG120">
+        <v>20</v>
+      </c>
+      <c r="BH120">
+        <v>80</v>
+      </c>
+      <c r="BU120">
         <v>20000</v>
       </c>
-      <c r="BH120">
+      <c r="BV120">
         <v>80000</v>
       </c>
-      <c r="BI120">
+      <c r="BW120">
         <v>20000</v>
       </c>
-      <c r="BJ120">
+      <c r="BX120">
         <v>80000</v>
       </c>
     </row>
-    <row r="121" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -41843,31 +43580,49 @@
         <v>47</v>
       </c>
       <c r="AV121">
+        <v>17</v>
+      </c>
+      <c r="AX121">
+        <v>83</v>
+      </c>
+      <c r="AZ121">
+        <v>5</v>
+      </c>
+      <c r="BB121">
+        <v>95</v>
+      </c>
+      <c r="BD121">
+        <v>5</v>
+      </c>
+      <c r="BF121">
+        <v>95</v>
+      </c>
+      <c r="BJ121">
         <v>5100</v>
       </c>
-      <c r="AX121">
+      <c r="BL121">
         <v>24900</v>
       </c>
-      <c r="AZ121">
+      <c r="BN121">
         <v>1000</v>
       </c>
-      <c r="BB121">
+      <c r="BP121">
         <v>19000</v>
       </c>
-      <c r="BD121">
+      <c r="BR121">
         <v>2500</v>
       </c>
-      <c r="BF121">
+      <c r="BT121">
         <v>47500</v>
       </c>
-      <c r="BI121">
+      <c r="BW121">
         <v>8600</v>
       </c>
-      <c r="BJ121">
+      <c r="BX121">
         <v>91400</v>
       </c>
     </row>
-    <row r="122" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -41995,31 +43750,49 @@
         <v>47</v>
       </c>
       <c r="AU122">
-        <v>9600</v>
+        <v>96</v>
       </c>
       <c r="AW122">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="AY122">
         <v>0</v>
       </c>
       <c r="BA122">
+        <v>100</v>
+      </c>
+      <c r="BC122">
+        <v>15</v>
+      </c>
+      <c r="BE122">
+        <v>85</v>
+      </c>
+      <c r="BI122">
+        <v>9600</v>
+      </c>
+      <c r="BK122">
+        <v>400</v>
+      </c>
+      <c r="BM122">
+        <v>0</v>
+      </c>
+      <c r="BO122">
         <v>20000</v>
       </c>
-      <c r="BC122">
+      <c r="BQ122">
         <v>10500</v>
       </c>
-      <c r="BE122">
+      <c r="BS122">
         <v>59500</v>
       </c>
-      <c r="BI122">
+      <c r="BW122">
         <v>20100</v>
       </c>
-      <c r="BJ122">
+      <c r="BX122">
         <v>79900</v>
       </c>
     </row>
-    <row r="123" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -42147,31 +43920,49 @@
         <v>47</v>
       </c>
       <c r="AV123">
-        <v>3600</v>
+        <v>12</v>
       </c>
       <c r="AX123">
-        <v>26400</v>
+        <v>88</v>
       </c>
       <c r="AZ123">
         <v>0</v>
       </c>
       <c r="BB123">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BD123">
         <v>0</v>
       </c>
       <c r="BF123">
+        <v>100</v>
+      </c>
+      <c r="BJ123">
+        <v>3600</v>
+      </c>
+      <c r="BL123">
+        <v>26400</v>
+      </c>
+      <c r="BN123">
+        <v>0</v>
+      </c>
+      <c r="BP123">
+        <v>20000</v>
+      </c>
+      <c r="BR123">
+        <v>0</v>
+      </c>
+      <c r="BT123">
         <v>50000</v>
       </c>
-      <c r="BI123">
+      <c r="BW123">
         <v>3600</v>
       </c>
-      <c r="BJ123">
+      <c r="BX123">
         <v>96400</v>
       </c>
     </row>
-    <row r="124" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -42287,19 +44078,25 @@
         <v>49</v>
       </c>
       <c r="BG124">
+        <v>20</v>
+      </c>
+      <c r="BH124">
+        <v>80</v>
+      </c>
+      <c r="BU124">
         <v>20000</v>
       </c>
-      <c r="BH124">
+      <c r="BV124">
         <v>80000</v>
       </c>
-      <c r="BI124">
+      <c r="BW124">
         <v>20000</v>
       </c>
-      <c r="BJ124">
+      <c r="BX124">
         <v>80000</v>
       </c>
     </row>
-    <row r="125" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -42427,31 +44224,49 @@
         <v>47</v>
       </c>
       <c r="AU125">
+        <v>50</v>
+      </c>
+      <c r="AW125">
+        <v>50</v>
+      </c>
+      <c r="AY125">
+        <v>25</v>
+      </c>
+      <c r="BA125">
+        <v>75</v>
+      </c>
+      <c r="BC125">
+        <v>28</v>
+      </c>
+      <c r="BE125">
+        <v>72</v>
+      </c>
+      <c r="BI125">
         <v>5000</v>
       </c>
-      <c r="AW125">
+      <c r="BK125">
         <v>5000</v>
       </c>
-      <c r="AY125">
+      <c r="BM125">
         <v>5000</v>
       </c>
-      <c r="BA125">
+      <c r="BO125">
         <v>15000</v>
       </c>
-      <c r="BC125">
+      <c r="BQ125">
         <v>19600</v>
       </c>
-      <c r="BE125">
+      <c r="BS125">
         <v>50400</v>
       </c>
-      <c r="BI125">
+      <c r="BW125">
         <v>29600</v>
       </c>
-      <c r="BJ125">
+      <c r="BX125">
         <v>70400</v>
       </c>
     </row>
-    <row r="126" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -42567,19 +44382,25 @@
         <v>51</v>
       </c>
       <c r="BG126">
+        <v>20</v>
+      </c>
+      <c r="BH126">
+        <v>80</v>
+      </c>
+      <c r="BU126">
         <v>20000</v>
       </c>
-      <c r="BH126">
+      <c r="BV126">
         <v>80000</v>
       </c>
-      <c r="BI126">
+      <c r="BW126">
         <v>20000</v>
       </c>
-      <c r="BJ126">
+      <c r="BX126">
         <v>80000</v>
       </c>
     </row>
-    <row r="127" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -42707,31 +44528,49 @@
         <v>51</v>
       </c>
       <c r="AU127">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AW127">
         <v>0</v>
       </c>
       <c r="AY127">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BA127">
         <v>0</v>
       </c>
       <c r="BC127">
-        <v>70000</v>
+        <v>100</v>
       </c>
       <c r="BE127">
         <v>0</v>
       </c>
       <c r="BI127">
+        <v>10000</v>
+      </c>
+      <c r="BK127">
+        <v>0</v>
+      </c>
+      <c r="BM127">
+        <v>20000</v>
+      </c>
+      <c r="BO127">
+        <v>0</v>
+      </c>
+      <c r="BQ127">
+        <v>70000</v>
+      </c>
+      <c r="BS127">
+        <v>0</v>
+      </c>
+      <c r="BW127">
         <v>100000</v>
       </c>
-      <c r="BJ127">
+      <c r="BX127">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -42862,31 +44701,49 @@
         <v>47</v>
       </c>
       <c r="AV128">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AX128">
         <v>0</v>
       </c>
       <c r="AZ128">
+        <v>50</v>
+      </c>
+      <c r="BB128">
+        <v>50</v>
+      </c>
+      <c r="BD128">
+        <v>50</v>
+      </c>
+      <c r="BF128">
+        <v>50</v>
+      </c>
+      <c r="BJ128">
+        <v>30000</v>
+      </c>
+      <c r="BL128">
+        <v>0</v>
+      </c>
+      <c r="BN128">
         <v>10000</v>
       </c>
-      <c r="BB128">
+      <c r="BP128">
         <v>10000</v>
       </c>
-      <c r="BD128">
+      <c r="BR128">
         <v>25000</v>
       </c>
-      <c r="BF128">
+      <c r="BT128">
         <v>25000</v>
       </c>
-      <c r="BI128">
+      <c r="BW128">
         <v>65000</v>
       </c>
-      <c r="BJ128">
+      <c r="BX128">
         <v>35000</v>
       </c>
     </row>
-    <row r="129" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -43002,19 +44859,25 @@
         <v>47</v>
       </c>
       <c r="BG129">
+        <v>30</v>
+      </c>
+      <c r="BH129">
+        <v>70</v>
+      </c>
+      <c r="BU129">
         <v>30000</v>
       </c>
-      <c r="BH129">
+      <c r="BV129">
         <v>70000</v>
       </c>
-      <c r="BI129">
+      <c r="BW129">
         <v>30000</v>
       </c>
-      <c r="BJ129">
+      <c r="BX129">
         <v>70000</v>
       </c>
     </row>
-    <row r="130" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -43142,31 +45005,49 @@
         <v>47</v>
       </c>
       <c r="AV130">
+        <v>67</v>
+      </c>
+      <c r="AX130">
+        <v>33</v>
+      </c>
+      <c r="AZ130">
+        <v>50</v>
+      </c>
+      <c r="BB130">
+        <v>50</v>
+      </c>
+      <c r="BD130">
+        <v>20</v>
+      </c>
+      <c r="BF130">
+        <v>80</v>
+      </c>
+      <c r="BJ130">
         <v>20100</v>
       </c>
-      <c r="AX130">
+      <c r="BL130">
         <v>9900</v>
       </c>
-      <c r="AZ130">
+      <c r="BN130">
         <v>10000</v>
       </c>
-      <c r="BB130">
+      <c r="BP130">
         <v>10000</v>
       </c>
-      <c r="BD130">
+      <c r="BR130">
         <v>10000</v>
       </c>
-      <c r="BF130">
+      <c r="BT130">
         <v>40000</v>
       </c>
-      <c r="BI130">
+      <c r="BW130">
         <v>40100</v>
       </c>
-      <c r="BJ130">
+      <c r="BX130">
         <v>59900</v>
       </c>
     </row>
-    <row r="131" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -43282,19 +45163,25 @@
         <v>51</v>
       </c>
       <c r="BG131">
+        <v>20</v>
+      </c>
+      <c r="BH131">
+        <v>80</v>
+      </c>
+      <c r="BU131">
         <v>20000</v>
       </c>
-      <c r="BH131">
+      <c r="BV131">
         <v>80000</v>
       </c>
-      <c r="BI131">
+      <c r="BW131">
         <v>20000</v>
       </c>
-      <c r="BJ131">
+      <c r="BX131">
         <v>80000</v>
       </c>
     </row>
-    <row r="132" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -43422,31 +45309,49 @@
         <v>47</v>
       </c>
       <c r="AV132">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AX132">
         <v>0</v>
       </c>
       <c r="AZ132">
-        <v>11400</v>
+        <v>57</v>
       </c>
       <c r="BB132">
-        <v>8600</v>
+        <v>43</v>
       </c>
       <c r="BD132">
         <v>0</v>
       </c>
       <c r="BF132">
+        <v>100</v>
+      </c>
+      <c r="BJ132">
+        <v>30000</v>
+      </c>
+      <c r="BL132">
+        <v>0</v>
+      </c>
+      <c r="BN132">
+        <v>11400</v>
+      </c>
+      <c r="BP132">
+        <v>8600</v>
+      </c>
+      <c r="BR132">
+        <v>0</v>
+      </c>
+      <c r="BT132">
         <v>50000</v>
       </c>
-      <c r="BI132">
+      <c r="BW132">
         <v>41400</v>
       </c>
-      <c r="BJ132">
+      <c r="BX132">
         <v>58600</v>
       </c>
     </row>
-    <row r="133" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -43577,28 +45482,46 @@
         <v>0</v>
       </c>
       <c r="AW133">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AY133">
         <v>0</v>
       </c>
       <c r="BA133">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC133">
         <v>0</v>
       </c>
       <c r="BE133">
-        <v>70000</v>
+        <v>100</v>
       </c>
       <c r="BI133">
         <v>0</v>
       </c>
-      <c r="BJ133">
+      <c r="BK133">
+        <v>10000</v>
+      </c>
+      <c r="BM133">
+        <v>0</v>
+      </c>
+      <c r="BO133">
+        <v>20000</v>
+      </c>
+      <c r="BQ133">
+        <v>0</v>
+      </c>
+      <c r="BS133">
+        <v>70000</v>
+      </c>
+      <c r="BW133">
+        <v>0</v>
+      </c>
+      <c r="BX133">
         <v>100000</v>
       </c>
     </row>
-    <row r="134" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -43726,31 +45649,49 @@
         <v>47</v>
       </c>
       <c r="AV134">
+        <v>17</v>
+      </c>
+      <c r="AX134">
+        <v>83</v>
+      </c>
+      <c r="AZ134">
+        <v>16</v>
+      </c>
+      <c r="BB134">
+        <v>84</v>
+      </c>
+      <c r="BD134">
+        <v>6</v>
+      </c>
+      <c r="BF134">
+        <v>94</v>
+      </c>
+      <c r="BJ134">
         <v>5100</v>
       </c>
-      <c r="AX134">
+      <c r="BL134">
         <v>24900</v>
       </c>
-      <c r="AZ134">
+      <c r="BN134">
         <v>3200</v>
       </c>
-      <c r="BB134">
+      <c r="BP134">
         <v>16800</v>
       </c>
-      <c r="BD134">
+      <c r="BR134">
         <v>3000</v>
       </c>
-      <c r="BF134">
+      <c r="BT134">
         <v>47000</v>
       </c>
-      <c r="BI134">
+      <c r="BW134">
         <v>11300</v>
       </c>
-      <c r="BJ134">
+      <c r="BX134">
         <v>88700</v>
       </c>
     </row>
-    <row r="135" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -43881,31 +45822,49 @@
         <v>49</v>
       </c>
       <c r="AU135">
+        <v>50</v>
+      </c>
+      <c r="AW135">
+        <v>50</v>
+      </c>
+      <c r="AY135">
+        <v>50</v>
+      </c>
+      <c r="BA135">
+        <v>50</v>
+      </c>
+      <c r="BC135">
+        <v>50</v>
+      </c>
+      <c r="BE135">
+        <v>50</v>
+      </c>
+      <c r="BI135">
         <v>5000</v>
       </c>
-      <c r="AW135">
+      <c r="BK135">
         <v>5000</v>
       </c>
-      <c r="AY135">
+      <c r="BM135">
         <v>10000</v>
       </c>
-      <c r="BA135">
+      <c r="BO135">
         <v>10000</v>
       </c>
-      <c r="BC135">
+      <c r="BQ135">
         <v>35000</v>
       </c>
-      <c r="BE135">
+      <c r="BS135">
         <v>35000</v>
       </c>
-      <c r="BI135">
+      <c r="BW135">
         <v>50000</v>
       </c>
-      <c r="BJ135">
+      <c r="BX135">
         <v>50000</v>
       </c>
     </row>
-    <row r="136" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -44021,19 +45980,25 @@
         <v>47</v>
       </c>
       <c r="BG136">
+        <v>45</v>
+      </c>
+      <c r="BH136">
+        <v>55</v>
+      </c>
+      <c r="BU136">
         <v>45000</v>
       </c>
-      <c r="BH136">
+      <c r="BV136">
         <v>55000</v>
       </c>
-      <c r="BI136">
+      <c r="BW136">
         <v>45000</v>
       </c>
-      <c r="BJ136">
+      <c r="BX136">
         <v>55000</v>
       </c>
     </row>
-    <row r="137" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -44161,31 +46126,49 @@
         <v>51</v>
       </c>
       <c r="AV137">
+        <v>67</v>
+      </c>
+      <c r="AX137">
+        <v>33</v>
+      </c>
+      <c r="AZ137">
+        <v>31</v>
+      </c>
+      <c r="BB137">
+        <v>69</v>
+      </c>
+      <c r="BD137">
+        <v>30</v>
+      </c>
+      <c r="BF137">
+        <v>70</v>
+      </c>
+      <c r="BJ137">
         <v>20100</v>
       </c>
-      <c r="AX137">
+      <c r="BL137">
         <v>9900</v>
       </c>
-      <c r="AZ137">
+      <c r="BN137">
         <v>6200</v>
       </c>
-      <c r="BB137">
+      <c r="BP137">
         <v>13800</v>
       </c>
-      <c r="BD137">
+      <c r="BR137">
         <v>15000</v>
       </c>
-      <c r="BF137">
+      <c r="BT137">
         <v>35000</v>
       </c>
-      <c r="BI137">
+      <c r="BW137">
         <v>41300</v>
       </c>
-      <c r="BJ137">
+      <c r="BX137">
         <v>58700</v>
       </c>
     </row>
-    <row r="138" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -44313,31 +46296,49 @@
         <v>47</v>
       </c>
       <c r="AU138">
+        <v>10</v>
+      </c>
+      <c r="AW138">
+        <v>90</v>
+      </c>
+      <c r="AY138">
+        <v>10</v>
+      </c>
+      <c r="BA138">
+        <v>90</v>
+      </c>
+      <c r="BC138">
+        <v>1</v>
+      </c>
+      <c r="BE138">
+        <v>99</v>
+      </c>
+      <c r="BI138">
         <v>1000</v>
       </c>
-      <c r="AW138">
+      <c r="BK138">
         <v>9000</v>
       </c>
-      <c r="AY138">
+      <c r="BM138">
         <v>2000</v>
       </c>
-      <c r="BA138">
+      <c r="BO138">
         <v>18000</v>
       </c>
-      <c r="BC138">
+      <c r="BQ138">
         <v>700</v>
       </c>
-      <c r="BE138">
+      <c r="BS138">
         <v>69300</v>
       </c>
-      <c r="BI138">
+      <c r="BW138">
         <v>3700</v>
       </c>
-      <c r="BJ138">
+      <c r="BX138">
         <v>96300</v>
       </c>
     </row>
-    <row r="139" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -44456,16 +46457,22 @@
         <v>0</v>
       </c>
       <c r="BH139">
+        <v>100</v>
+      </c>
+      <c r="BU139">
+        <v>0</v>
+      </c>
+      <c r="BV139">
         <v>100000</v>
       </c>
-      <c r="BI139">
+      <c r="BW139">
         <v>0</v>
       </c>
-      <c r="BJ139">
+      <c r="BX139">
         <v>100000</v>
       </c>
     </row>
-    <row r="140" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -44590,31 +46597,49 @@
         <v>51</v>
       </c>
       <c r="AV140">
+        <v>14</v>
+      </c>
+      <c r="AX140">
+        <v>86</v>
+      </c>
+      <c r="AZ140">
+        <v>25</v>
+      </c>
+      <c r="BB140">
+        <v>75</v>
+      </c>
+      <c r="BD140">
+        <v>20</v>
+      </c>
+      <c r="BF140">
+        <v>80</v>
+      </c>
+      <c r="BJ140">
         <v>4200</v>
       </c>
-      <c r="AX140">
+      <c r="BL140">
         <v>25800</v>
       </c>
-      <c r="AZ140">
+      <c r="BN140">
         <v>5000</v>
       </c>
-      <c r="BB140">
+      <c r="BP140">
         <v>15000</v>
       </c>
-      <c r="BD140">
+      <c r="BR140">
         <v>10000</v>
       </c>
-      <c r="BF140">
+      <c r="BT140">
         <v>40000</v>
       </c>
-      <c r="BI140">
+      <c r="BW140">
         <v>19200</v>
       </c>
-      <c r="BJ140">
+      <c r="BX140">
         <v>80800</v>
       </c>
     </row>
-    <row r="141" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -44742,31 +46767,49 @@
         <v>49</v>
       </c>
       <c r="AU141">
+        <v>10</v>
+      </c>
+      <c r="AW141">
+        <v>90</v>
+      </c>
+      <c r="AY141">
+        <v>15</v>
+      </c>
+      <c r="BA141">
+        <v>85</v>
+      </c>
+      <c r="BC141">
+        <v>10</v>
+      </c>
+      <c r="BE141">
+        <v>90</v>
+      </c>
+      <c r="BI141">
         <v>1000</v>
       </c>
-      <c r="AW141">
+      <c r="BK141">
         <v>9000</v>
       </c>
-      <c r="AY141">
+      <c r="BM141">
         <v>3000</v>
       </c>
-      <c r="BA141">
+      <c r="BO141">
         <v>17000</v>
       </c>
-      <c r="BC141">
+      <c r="BQ141">
         <v>7000</v>
       </c>
-      <c r="BE141">
+      <c r="BS141">
         <v>63000</v>
       </c>
-      <c r="BI141">
+      <c r="BW141">
         <v>11000</v>
       </c>
-      <c r="BJ141">
+      <c r="BX141">
         <v>89000</v>
       </c>
     </row>
-    <row r="142" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -44882,19 +46925,25 @@
         <v>47</v>
       </c>
       <c r="BG142">
+        <v>4</v>
+      </c>
+      <c r="BH142">
+        <v>96</v>
+      </c>
+      <c r="BU142">
         <v>4000</v>
       </c>
-      <c r="BH142">
+      <c r="BV142">
         <v>96000</v>
       </c>
-      <c r="BI142">
+      <c r="BW142">
         <v>4000</v>
       </c>
-      <c r="BJ142">
+      <c r="BX142">
         <v>96000</v>
       </c>
     </row>
-    <row r="143" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -45022,31 +47071,49 @@
         <v>47</v>
       </c>
       <c r="AU143">
+        <v>16</v>
+      </c>
+      <c r="AW143">
+        <v>84</v>
+      </c>
+      <c r="AY143">
+        <v>6</v>
+      </c>
+      <c r="BA143">
+        <v>94</v>
+      </c>
+      <c r="BC143">
+        <v>26</v>
+      </c>
+      <c r="BE143">
+        <v>74</v>
+      </c>
+      <c r="BI143">
         <v>1600</v>
       </c>
-      <c r="AW143">
+      <c r="BK143">
         <v>8400</v>
       </c>
-      <c r="AY143">
+      <c r="BM143">
         <v>1200</v>
       </c>
-      <c r="BA143">
+      <c r="BO143">
         <v>18800</v>
       </c>
-      <c r="BC143">
+      <c r="BQ143">
         <v>18200</v>
       </c>
-      <c r="BE143">
+      <c r="BS143">
         <v>51800</v>
       </c>
-      <c r="BI143">
+      <c r="BW143">
         <v>21000</v>
       </c>
-      <c r="BJ143">
+      <c r="BX143">
         <v>79000</v>
       </c>
     </row>
-    <row r="144" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -45171,31 +47238,49 @@
         <v>47</v>
       </c>
       <c r="AV144">
+        <v>50</v>
+      </c>
+      <c r="AX144">
+        <v>50</v>
+      </c>
+      <c r="AZ144">
+        <v>25</v>
+      </c>
+      <c r="BB144">
+        <v>75</v>
+      </c>
+      <c r="BD144">
+        <v>20</v>
+      </c>
+      <c r="BF144">
+        <v>80</v>
+      </c>
+      <c r="BJ144">
         <v>15000</v>
       </c>
-      <c r="AX144">
+      <c r="BL144">
         <v>15000</v>
       </c>
-      <c r="AZ144">
+      <c r="BN144">
         <v>5000</v>
       </c>
-      <c r="BB144">
+      <c r="BP144">
         <v>15000</v>
       </c>
-      <c r="BD144">
+      <c r="BR144">
         <v>10000</v>
       </c>
-      <c r="BF144">
+      <c r="BT144">
         <v>40000</v>
       </c>
-      <c r="BI144">
+      <c r="BW144">
         <v>30000</v>
       </c>
-      <c r="BJ144">
+      <c r="BX144">
         <v>70000</v>
       </c>
     </row>
-    <row r="145" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -45323,31 +47408,49 @@
         <v>49</v>
       </c>
       <c r="AU145">
+        <v>36</v>
+      </c>
+      <c r="AW145">
+        <v>64</v>
+      </c>
+      <c r="AY145">
+        <v>37</v>
+      </c>
+      <c r="BA145">
+        <v>63</v>
+      </c>
+      <c r="BC145">
+        <v>36</v>
+      </c>
+      <c r="BE145">
+        <v>64</v>
+      </c>
+      <c r="BI145">
         <v>3600</v>
       </c>
-      <c r="AW145">
+      <c r="BK145">
         <v>6400</v>
       </c>
-      <c r="AY145">
+      <c r="BM145">
         <v>7400</v>
       </c>
-      <c r="BA145">
+      <c r="BO145">
         <v>12600</v>
       </c>
-      <c r="BC145">
+      <c r="BQ145">
         <v>25200</v>
       </c>
-      <c r="BE145">
+      <c r="BS145">
         <v>44800</v>
       </c>
-      <c r="BI145">
+      <c r="BW145">
         <v>36200</v>
       </c>
-      <c r="BJ145">
+      <c r="BX145">
         <v>63800</v>
       </c>
     </row>
-    <row r="146" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -45475,31 +47578,49 @@
         <v>51</v>
       </c>
       <c r="AV146">
-        <v>5100</v>
+        <v>17</v>
       </c>
       <c r="AX146">
-        <v>24900</v>
+        <v>83</v>
       </c>
       <c r="AZ146">
         <v>0</v>
       </c>
       <c r="BB146">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BD146">
         <v>0</v>
       </c>
       <c r="BF146">
+        <v>100</v>
+      </c>
+      <c r="BJ146">
+        <v>5100</v>
+      </c>
+      <c r="BL146">
+        <v>24900</v>
+      </c>
+      <c r="BN146">
+        <v>0</v>
+      </c>
+      <c r="BP146">
+        <v>20000</v>
+      </c>
+      <c r="BR146">
+        <v>0</v>
+      </c>
+      <c r="BT146">
         <v>50000</v>
       </c>
-      <c r="BI146">
+      <c r="BW146">
         <v>5100</v>
       </c>
-      <c r="BJ146">
+      <c r="BX146">
         <v>94900</v>
       </c>
     </row>
-    <row r="147" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -45615,19 +47736,25 @@
         <v>47</v>
       </c>
       <c r="BG147">
+        <v>10</v>
+      </c>
+      <c r="BH147">
+        <v>90</v>
+      </c>
+      <c r="BU147">
         <v>10000</v>
       </c>
-      <c r="BH147">
+      <c r="BV147">
         <v>90000</v>
       </c>
-      <c r="BI147">
+      <c r="BW147">
         <v>10000</v>
       </c>
-      <c r="BJ147">
+      <c r="BX147">
         <v>90000</v>
       </c>
     </row>
-    <row r="148" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -45755,31 +47882,49 @@
         <v>49</v>
       </c>
       <c r="AV148">
-        <v>15000</v>
+        <v>50</v>
       </c>
       <c r="AX148">
-        <v>15000</v>
+        <v>50</v>
       </c>
       <c r="AZ148">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="BB148">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="BD148">
         <v>0</v>
       </c>
       <c r="BF148">
+        <v>100</v>
+      </c>
+      <c r="BJ148">
+        <v>15000</v>
+      </c>
+      <c r="BL148">
+        <v>15000</v>
+      </c>
+      <c r="BN148">
+        <v>10000</v>
+      </c>
+      <c r="BP148">
+        <v>10000</v>
+      </c>
+      <c r="BR148">
+        <v>0</v>
+      </c>
+      <c r="BT148">
         <v>50000</v>
       </c>
-      <c r="BI148">
+      <c r="BW148">
         <v>25000</v>
       </c>
-      <c r="BJ148">
+      <c r="BX148">
         <v>75000</v>
       </c>
     </row>
-    <row r="149" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -45892,19 +48037,25 @@
         <v>48</v>
       </c>
       <c r="BG149">
+        <v>75</v>
+      </c>
+      <c r="BH149">
+        <v>25</v>
+      </c>
+      <c r="BU149">
         <v>75000</v>
       </c>
-      <c r="BH149">
+      <c r="BV149">
         <v>25000</v>
       </c>
-      <c r="BI149">
+      <c r="BW149">
         <v>75000</v>
       </c>
-      <c r="BJ149">
+      <c r="BX149">
         <v>25000</v>
       </c>
     </row>
-    <row r="150" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -46032,31 +48183,49 @@
         <v>49</v>
       </c>
       <c r="AV150">
+        <v>50</v>
+      </c>
+      <c r="AX150">
+        <v>50</v>
+      </c>
+      <c r="AZ150">
+        <v>29</v>
+      </c>
+      <c r="BB150">
+        <v>71</v>
+      </c>
+      <c r="BD150">
+        <v>31</v>
+      </c>
+      <c r="BF150">
+        <v>69</v>
+      </c>
+      <c r="BJ150">
         <v>15000</v>
       </c>
-      <c r="AX150">
+      <c r="BL150">
         <v>15000</v>
       </c>
-      <c r="AZ150">
+      <c r="BN150">
         <v>5800</v>
       </c>
-      <c r="BB150">
+      <c r="BP150">
         <v>14200</v>
       </c>
-      <c r="BD150">
+      <c r="BR150">
         <v>15500</v>
       </c>
-      <c r="BF150">
+      <c r="BT150">
         <v>34500</v>
       </c>
-      <c r="BI150">
+      <c r="BW150">
         <v>36300</v>
       </c>
-      <c r="BJ150">
+      <c r="BX150">
         <v>63700</v>
       </c>
     </row>
-    <row r="151" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -46172,19 +48341,25 @@
         <v>51</v>
       </c>
       <c r="BG151">
+        <v>16</v>
+      </c>
+      <c r="BH151">
+        <v>84</v>
+      </c>
+      <c r="BU151">
         <v>16000</v>
       </c>
-      <c r="BH151">
+      <c r="BV151">
         <v>84000</v>
       </c>
-      <c r="BI151">
+      <c r="BW151">
         <v>16000</v>
       </c>
-      <c r="BJ151">
+      <c r="BX151">
         <v>84000</v>
       </c>
     </row>
-    <row r="152" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -46300,19 +48475,25 @@
         <v>49</v>
       </c>
       <c r="BG152">
+        <v>26</v>
+      </c>
+      <c r="BH152">
+        <v>74</v>
+      </c>
+      <c r="BU152">
         <v>26000</v>
       </c>
-      <c r="BH152">
+      <c r="BV152">
         <v>74000</v>
       </c>
-      <c r="BI152">
+      <c r="BW152">
         <v>26000</v>
       </c>
-      <c r="BJ152">
+      <c r="BX152">
         <v>74000</v>
       </c>
     </row>
-    <row r="153" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -46440,31 +48621,49 @@
         <v>47</v>
       </c>
       <c r="AV153">
+        <v>11</v>
+      </c>
+      <c r="AX153">
+        <v>89</v>
+      </c>
+      <c r="AZ153">
+        <v>15</v>
+      </c>
+      <c r="BB153">
+        <v>85</v>
+      </c>
+      <c r="BD153">
+        <v>20</v>
+      </c>
+      <c r="BF153">
+        <v>80</v>
+      </c>
+      <c r="BJ153">
         <v>3300</v>
       </c>
-      <c r="AX153">
+      <c r="BL153">
         <v>26700</v>
       </c>
-      <c r="AZ153">
+      <c r="BN153">
         <v>3000</v>
       </c>
-      <c r="BB153">
+      <c r="BP153">
         <v>17000</v>
       </c>
-      <c r="BD153">
+      <c r="BR153">
         <v>10000</v>
       </c>
-      <c r="BF153">
+      <c r="BT153">
         <v>40000</v>
       </c>
-      <c r="BI153">
+      <c r="BW153">
         <v>16300</v>
       </c>
-      <c r="BJ153">
+      <c r="BX153">
         <v>83700</v>
       </c>
     </row>
-    <row r="154" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -46592,31 +48791,49 @@
         <v>51</v>
       </c>
       <c r="AU154">
+        <v>32</v>
+      </c>
+      <c r="AW154">
+        <v>68</v>
+      </c>
+      <c r="AY154">
+        <v>41</v>
+      </c>
+      <c r="BA154">
+        <v>59</v>
+      </c>
+      <c r="BC154">
+        <v>28</v>
+      </c>
+      <c r="BE154">
+        <v>72</v>
+      </c>
+      <c r="BI154">
         <v>3200</v>
       </c>
-      <c r="AW154">
+      <c r="BK154">
         <v>6800</v>
       </c>
-      <c r="AY154">
+      <c r="BM154">
         <v>8200</v>
       </c>
-      <c r="BA154">
+      <c r="BO154">
         <v>11800</v>
       </c>
-      <c r="BC154">
+      <c r="BQ154">
         <v>19600</v>
       </c>
-      <c r="BE154">
+      <c r="BS154">
         <v>50400</v>
       </c>
-      <c r="BI154">
+      <c r="BW154">
         <v>31000</v>
       </c>
-      <c r="BJ154">
+      <c r="BX154">
         <v>69000</v>
       </c>
     </row>
-    <row r="155" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -46744,31 +48961,49 @@
         <v>51</v>
       </c>
       <c r="AV155">
+        <v>81</v>
+      </c>
+      <c r="AX155">
+        <v>19</v>
+      </c>
+      <c r="AZ155">
+        <v>16</v>
+      </c>
+      <c r="BB155">
+        <v>84</v>
+      </c>
+      <c r="BD155">
+        <v>18</v>
+      </c>
+      <c r="BF155">
+        <v>82</v>
+      </c>
+      <c r="BJ155">
         <v>24300</v>
       </c>
-      <c r="AX155">
+      <c r="BL155">
         <v>5700</v>
       </c>
-      <c r="AZ155">
+      <c r="BN155">
         <v>3200</v>
       </c>
-      <c r="BB155">
+      <c r="BP155">
         <v>16800</v>
       </c>
-      <c r="BD155">
+      <c r="BR155">
         <v>9000</v>
       </c>
-      <c r="BF155">
+      <c r="BT155">
         <v>41000</v>
       </c>
-      <c r="BI155">
+      <c r="BW155">
         <v>36500</v>
       </c>
-      <c r="BJ155">
+      <c r="BX155">
         <v>63500</v>
       </c>
     </row>
-    <row r="156" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -46896,31 +49131,49 @@
         <v>51</v>
       </c>
       <c r="AU156">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="AW156">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="AY156">
         <v>0</v>
       </c>
       <c r="BA156">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC156">
         <v>0</v>
       </c>
       <c r="BE156">
-        <v>70000</v>
+        <v>100</v>
       </c>
       <c r="BI156">
         <v>5000</v>
       </c>
-      <c r="BJ156">
+      <c r="BK156">
+        <v>5000</v>
+      </c>
+      <c r="BM156">
+        <v>0</v>
+      </c>
+      <c r="BO156">
+        <v>20000</v>
+      </c>
+      <c r="BQ156">
+        <v>0</v>
+      </c>
+      <c r="BS156">
+        <v>70000</v>
+      </c>
+      <c r="BW156">
+        <v>5000</v>
+      </c>
+      <c r="BX156">
         <v>95000</v>
       </c>
     </row>
-    <row r="157" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -47036,19 +49289,25 @@
         <v>47</v>
       </c>
       <c r="BG157">
+        <v>30</v>
+      </c>
+      <c r="BH157">
+        <v>70</v>
+      </c>
+      <c r="BU157">
         <v>30000</v>
       </c>
-      <c r="BH157">
+      <c r="BV157">
         <v>70000</v>
       </c>
-      <c r="BI157">
+      <c r="BW157">
         <v>30000</v>
       </c>
-      <c r="BJ157">
+      <c r="BX157">
         <v>70000</v>
       </c>
     </row>
-    <row r="158" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -47176,31 +49435,49 @@
         <v>49</v>
       </c>
       <c r="AV158">
+        <v>70</v>
+      </c>
+      <c r="AX158">
+        <v>30</v>
+      </c>
+      <c r="AZ158">
+        <v>25</v>
+      </c>
+      <c r="BB158">
+        <v>75</v>
+      </c>
+      <c r="BD158">
+        <v>18</v>
+      </c>
+      <c r="BF158">
+        <v>82</v>
+      </c>
+      <c r="BJ158">
         <v>21000</v>
       </c>
-      <c r="AX158">
+      <c r="BL158">
         <v>9000</v>
       </c>
-      <c r="AZ158">
+      <c r="BN158">
         <v>5000</v>
       </c>
-      <c r="BB158">
+      <c r="BP158">
         <v>15000</v>
       </c>
-      <c r="BD158">
+      <c r="BR158">
         <v>9000</v>
       </c>
-      <c r="BF158">
+      <c r="BT158">
         <v>41000</v>
       </c>
-      <c r="BI158">
+      <c r="BW158">
         <v>35000</v>
       </c>
-      <c r="BJ158">
+      <c r="BX158">
         <v>65000</v>
       </c>
     </row>
-    <row r="159" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -47316,19 +49593,25 @@
         <v>52</v>
       </c>
       <c r="BG159">
+        <v>20</v>
+      </c>
+      <c r="BH159">
+        <v>80</v>
+      </c>
+      <c r="BU159">
         <v>20000</v>
       </c>
-      <c r="BH159">
+      <c r="BV159">
         <v>80000</v>
       </c>
-      <c r="BI159">
+      <c r="BW159">
         <v>20000</v>
       </c>
-      <c r="BJ159">
+      <c r="BX159">
         <v>80000</v>
       </c>
     </row>
-    <row r="160" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -47456,31 +49739,49 @@
         <v>49</v>
       </c>
       <c r="AU160">
+        <v>72</v>
+      </c>
+      <c r="AW160">
+        <v>28</v>
+      </c>
+      <c r="AY160">
+        <v>16</v>
+      </c>
+      <c r="BA160">
+        <v>84</v>
+      </c>
+      <c r="BC160">
+        <v>19</v>
+      </c>
+      <c r="BE160">
+        <v>81</v>
+      </c>
+      <c r="BI160">
         <v>7200</v>
       </c>
-      <c r="AW160">
+      <c r="BK160">
         <v>2800</v>
       </c>
-      <c r="AY160">
+      <c r="BM160">
         <v>3200</v>
       </c>
-      <c r="BA160">
+      <c r="BO160">
         <v>16800</v>
       </c>
-      <c r="BC160">
+      <c r="BQ160">
         <v>13300</v>
       </c>
-      <c r="BE160">
+      <c r="BS160">
         <v>56700</v>
       </c>
-      <c r="BI160">
+      <c r="BW160">
         <v>23700</v>
       </c>
-      <c r="BJ160">
+      <c r="BX160">
         <v>76300</v>
       </c>
     </row>
-    <row r="161" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -47608,31 +49909,49 @@
         <v>51</v>
       </c>
       <c r="AV161">
+        <v>86</v>
+      </c>
+      <c r="AX161">
+        <v>14</v>
+      </c>
+      <c r="AZ161">
+        <v>56</v>
+      </c>
+      <c r="BB161">
+        <v>44</v>
+      </c>
+      <c r="BD161">
+        <v>80</v>
+      </c>
+      <c r="BF161">
+        <v>20</v>
+      </c>
+      <c r="BJ161">
         <v>25800</v>
       </c>
-      <c r="AX161">
+      <c r="BL161">
         <v>4200</v>
       </c>
-      <c r="AZ161">
+      <c r="BN161">
         <v>11200</v>
       </c>
-      <c r="BB161">
+      <c r="BP161">
         <v>8800</v>
       </c>
-      <c r="BD161">
+      <c r="BR161">
         <v>40000</v>
       </c>
-      <c r="BF161">
+      <c r="BT161">
         <v>10000</v>
       </c>
-      <c r="BI161">
+      <c r="BW161">
         <v>77000</v>
       </c>
-      <c r="BJ161">
+      <c r="BX161">
         <v>23000</v>
       </c>
     </row>
-    <row r="162" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -47754,12 +50073,18 @@
         <v>0</v>
       </c>
       <c r="BH162">
+        <v>100</v>
+      </c>
+      <c r="BU162">
+        <v>0</v>
+      </c>
+      <c r="BV162">
         <v>100000</v>
       </c>
-      <c r="BI162">
+      <c r="BW162">
         <v>0</v>
       </c>
-      <c r="BJ162">
+      <c r="BX162">
         <v>100000</v>
       </c>
     </row>
@@ -49542,10 +51867,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755B0118-F93C-4AA4-A990-7FED5D641EC6}">
-  <dimension ref="A1:Q181"/>
+  <dimension ref="A1:Q203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="I198" sqref="I198"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="P163" sqref="P163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53971,6 +56296,17 @@
       <c r="C181">
         <f>ROUND(C180/1000,2)</f>
         <v>71.33</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>145</v>
+      </c>
+      <c r="C203" t="s">
+        <v>145</v>
+      </c>
+      <c r="D203" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/Auswertung_Hauptstudie/data_masterstudie_filtered_1.xlsx
+++ b/Auswertung_Hauptstudie/data_masterstudie_filtered_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Psychologie\Masterarbeit\Masterarbeit\Auswertung_Hauptstudie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960F0C2A-CC02-4040-A574-C2F17FD9F4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5E0B08-2061-462E-8F7C-0DEDD27713D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
@@ -14120,16 +14120,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>80962</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>700087</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>719137</xdr:colOff>
-      <xdr:row>199</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>852487</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24497,8 +24497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BX162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection sqref="A1:BX162"/>
+    <sheetView topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AU49" sqref="AU49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51869,8 +51869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755B0118-F93C-4AA4-A990-7FED5D641EC6}">
   <dimension ref="A1:Q203"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="P163" sqref="P163"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F205" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
